--- a/server/data/financials.xlsx
+++ b/server/data/financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DashIP\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dashboard\IPDash\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4949BE5F-C726-410B-813D-C2C3F7531A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC001D-E0A5-4C62-A513-03937C44A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="62">
   <si>
     <t>Sales</t>
   </si>
@@ -208,12 +208,6 @@
     <t>Ledgers</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Forecast</t>
-  </si>
-  <si>
     <t xml:space="preserve">EBITDA </t>
   </si>
   <si>
@@ -224,6 +218,9 @@
   </si>
   <si>
     <t>Total Expenses /Kg</t>
+  </si>
+  <si>
+    <t>Total FinanceCost &amp; Amortization</t>
   </si>
 </sst>
 </file>
@@ -673,41 +670,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CA8" sqref="CA8"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CT1" sqref="CT1:CU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="85" width="10.5703125" customWidth="1"/>
-    <col min="86" max="97" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="11.140625" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="67" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" customWidth="1"/>
+    <col min="79" max="79" width="12.44140625" customWidth="1"/>
+    <col min="80" max="85" width="10.5546875" customWidth="1"/>
+    <col min="86" max="96" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.88671875" customWidth="1"/>
+    <col min="98" max="98" width="11.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
         <v>2019</v>
       </c>
@@ -996,14 +997,10 @@
       <c r="CS1" s="8">
         <v>2025</v>
       </c>
-      <c r="CT1" s="8">
-        <v>2026</v>
-      </c>
-      <c r="CU1" s="8">
-        <v>2027</v>
-      </c>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1292,14 +1289,10 @@
       <c r="CS2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="CT2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -1591,14 +1584,10 @@
       <c r="CS3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="CT3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU3" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="CT3" s="8"/>
+      <c r="CU3" s="8"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1816,9 @@
       <c r="BX4" s="2">
         <v>8312641.6499999994</v>
       </c>
-      <c r="BY4" s="2"/>
+      <c r="BY4" s="2">
+        <v>9125533.7600000016</v>
+      </c>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
@@ -1872,14 +1863,10 @@
       <c r="CS4" s="2">
         <v>9810500</v>
       </c>
-      <c r="CT4" s="2">
-        <v>9810501</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>9810502</v>
-      </c>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2159,7 @@
         <v>4829399.5200000005</v>
       </c>
       <c r="BV5" s="10">
-        <f t="shared" si="1"/>
+        <f>BV6+BV17</f>
         <v>8337560.9799999995</v>
       </c>
       <c r="BW5" s="10">
@@ -2183,7 +2170,10 @@
         <f t="shared" si="1"/>
         <v>7156877.7000000002</v>
       </c>
-      <c r="BY5" s="10"/>
+      <c r="BY5" s="10">
+        <f t="shared" si="1"/>
+        <v>7739583.9800000004</v>
+      </c>
       <c r="BZ5" s="10"/>
       <c r="CA5" s="10"/>
       <c r="CB5" s="10"/>
@@ -2241,7 +2231,7 @@
         <v>8219707.1179297501</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2460,9 @@
       <c r="BX6" s="2">
         <v>5253854.58</v>
       </c>
-      <c r="BY6" s="2"/>
+      <c r="BY6" s="2">
+        <v>5894552.5800000001</v>
+      </c>
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2"/>
@@ -2516,7 +2508,7 @@
         <v>6142644.1179297501</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -2820,7 +2812,10 @@
         <f t="shared" si="3"/>
         <v>0.63203188603709393</v>
       </c>
-      <c r="BY7" s="9"/>
+      <c r="BY7" s="9">
+        <f t="shared" si="3"/>
+        <v>0.64594058112388142</v>
+      </c>
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
       <c r="CB7" s="9"/>
@@ -2878,7 +2873,7 @@
         <v>0.62612956708931755</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3099,15 +3094,17 @@
         <v>633654.06999999983</v>
       </c>
       <c r="BV8" s="13">
-        <v>709598.01000000013</v>
+        <v>709598.01000000024</v>
       </c>
       <c r="BW8" s="13">
-        <v>735412.56</v>
+        <v>735393.73999999976</v>
       </c>
       <c r="BX8" s="13">
-        <v>739405.17000000016</v>
-      </c>
-      <c r="BY8" s="13"/>
+        <v>739581.85000000009</v>
+      </c>
+      <c r="BY8" s="13">
+        <v>824148</v>
+      </c>
       <c r="BZ8" s="13"/>
       <c r="CA8" s="13"/>
       <c r="CB8" s="13"/>
@@ -3153,7 +3150,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -3374,15 +3371,17 @@
         <v>741713.83854949998</v>
       </c>
       <c r="BV9" s="13">
-        <v>811811.0556181001</v>
+        <v>810509.7566181001</v>
       </c>
       <c r="BW9" s="13">
-        <v>854340.84554350039</v>
+        <v>854302.34757550026</v>
       </c>
       <c r="BX9" s="13">
-        <v>2004254.6804550001</v>
-      </c>
-      <c r="BY9" s="13"/>
+        <v>866385.97480900015</v>
+      </c>
+      <c r="BY9" s="13">
+        <v>1085447.7220590001</v>
+      </c>
       <c r="BZ9" s="13"/>
       <c r="CA9" s="13"/>
       <c r="CB9" s="13"/>
@@ -3428,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -3657,7 +3656,9 @@
       <c r="BX10" s="13">
         <v>764724.48</v>
       </c>
-      <c r="BY10" s="13"/>
+      <c r="BY10" s="13">
+        <v>728500.43</v>
+      </c>
       <c r="BZ10" s="13"/>
       <c r="CA10" s="13"/>
       <c r="CB10" s="13"/>
@@ -3703,7 +3704,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +3933,9 @@
       <c r="BX11" s="13">
         <v>543936.66</v>
       </c>
-      <c r="BY11" s="13"/>
+      <c r="BY11" s="13">
+        <v>556521.75</v>
+      </c>
       <c r="BZ11" s="13"/>
       <c r="CA11" s="13"/>
       <c r="CB11" s="13"/>
@@ -3978,10 +3981,10 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4213,9 @@
       <c r="BX13" s="13">
         <v>341090.52</v>
       </c>
-      <c r="BY13" s="13"/>
+      <c r="BY13" s="13">
+        <v>370656.48</v>
+      </c>
       <c r="BZ13" s="13"/>
       <c r="CA13" s="13"/>
       <c r="CB13" s="13"/>
@@ -4256,7 +4261,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -4485,7 +4490,9 @@
       <c r="BX14" s="13">
         <v>295297.98</v>
       </c>
-      <c r="BY14" s="13"/>
+      <c r="BY14" s="13">
+        <v>307661.45</v>
+      </c>
       <c r="BZ14" s="13"/>
       <c r="CA14" s="13"/>
       <c r="CB14" s="13"/>
@@ -4531,7 +4538,7 @@
         <v>313200</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -4835,7 +4842,10 @@
         <f t="shared" si="5"/>
         <v>1945049.6400000001</v>
       </c>
-      <c r="BY15" s="10"/>
+      <c r="BY15" s="10">
+        <f t="shared" si="5"/>
+        <v>1963340.11</v>
+      </c>
       <c r="BZ15" s="10"/>
       <c r="CA15" s="10"/>
       <c r="CB15" s="10"/>
@@ -4893,7 +4903,7 @@
         <v>2018200</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -5122,7 +5132,9 @@
       <c r="BX16" s="13">
         <v>-42026.520000000019</v>
       </c>
-      <c r="BY16" s="13"/>
+      <c r="BY16" s="13">
+        <v>-118308.7100000002</v>
+      </c>
       <c r="BZ16" s="13"/>
       <c r="CA16" s="13"/>
       <c r="CB16" s="13"/>
@@ -5168,7 +5180,7 @@
         <v>58863</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -5472,7 +5484,10 @@
         <f t="shared" si="7"/>
         <v>1903023.12</v>
       </c>
-      <c r="BY17" s="10"/>
+      <c r="BY17" s="10">
+        <f t="shared" si="7"/>
+        <v>1845031.4</v>
+      </c>
       <c r="BZ17" s="10"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
@@ -5530,12 +5545,12 @@
         <v>2077063</v>
       </c>
     </row>
-    <row r="18" spans="1:97" ht="27.1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -5839,7 +5854,10 @@
         <f t="shared" si="9"/>
         <v>0.26590130497828685</v>
       </c>
-      <c r="BY19" s="9"/>
+      <c r="BY19" s="9">
+        <f t="shared" ref="BY19" si="10">BY17/BY5</f>
+        <v>0.23838896312357086</v>
+      </c>
       <c r="BZ19" s="9"/>
       <c r="CA19" s="9"/>
       <c r="CB19" s="9"/>
@@ -5897,7 +5915,7 @@
         <v>0.2526930668209913</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -5906,302 +5924,305 @@
         <v>838786.92000000086</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:BN20" si="10">C4-C5</f>
+        <f t="shared" ref="C20:BN20" si="11">C4-C5</f>
         <v>723297.87000000104</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>687003.08000000007</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1132528.4900000002</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1037265.7800000012</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>931468.23000000045</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>961410.40000000224</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>925875.48999999929</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>988083.29999999981</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>755703.24000000209</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>608347.48000000138</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>376722.1400000006</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>378780</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>673404.30000000075</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1064026.4400000004</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1211515.589999998</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1140897.8500000015</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1093203.0999999996</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1019185.5899999999</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>960528</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>747167.73999999929</v>
       </c>
       <c r="W20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>683916.29999999981</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>542738.31000000052</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1213275.75</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>900863.43999999948</v>
       </c>
       <c r="AA20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>813938.70000000112</v>
       </c>
       <c r="AB20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>647467.10000000149</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>435358.22999999672</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>369847.62000000104</v>
       </c>
       <c r="AE20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-29239.149999999441</v>
       </c>
       <c r="AF20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-343917.69000000041</v>
       </c>
       <c r="AG20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-419437.37000000104</v>
       </c>
       <c r="AH20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-257432.75</v>
       </c>
       <c r="AI20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-318346.40999999922</v>
       </c>
       <c r="AJ20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>213431.59000000171</v>
       </c>
       <c r="AK20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>336784.84000000078</v>
       </c>
       <c r="AL20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>377380.49999999907</v>
       </c>
       <c r="AM20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>640605.95999999903</v>
       </c>
       <c r="AN20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>945552.7799999984</v>
       </c>
       <c r="AO20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>626856.04999999981</v>
       </c>
       <c r="AP20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>439218.23000000045</v>
       </c>
       <c r="AQ20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>351230.99000000022</v>
       </c>
       <c r="AR20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>543823.41000000015</v>
       </c>
       <c r="AS20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>601666.99000000115</v>
       </c>
       <c r="AT20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>794873.65000000037</v>
       </c>
       <c r="AU20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1007030.3499999996</v>
       </c>
       <c r="AV20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1216899.4899999993</v>
       </c>
       <c r="AW20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1142910.3500000006</v>
       </c>
       <c r="AX20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1496825.38</v>
       </c>
       <c r="AY20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1310003.0299999984</v>
       </c>
       <c r="AZ20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1631834.79</v>
       </c>
       <c r="BA20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1338133.1399999997</v>
       </c>
       <c r="BB20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1423042.3200000003</v>
       </c>
       <c r="BC20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1295968.7000000011</v>
       </c>
       <c r="BD20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1385609.4299999988</v>
       </c>
       <c r="BE20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1273952.9700000016</v>
       </c>
       <c r="BF20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1248447.4799999995</v>
       </c>
       <c r="BG20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1308958.7799999993</v>
       </c>
       <c r="BH20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1128941.6099999975</v>
       </c>
       <c r="BI20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>955720.54999999888</v>
       </c>
       <c r="BJ20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1516013.0300000003</v>
       </c>
       <c r="BK20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1154346.9900000002</v>
       </c>
       <c r="BL20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1400672.5499999998</v>
       </c>
       <c r="BM20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>881423.27999999933</v>
       </c>
       <c r="BN20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1512336.7699999996</v>
       </c>
       <c r="BO20" s="11">
-        <f t="shared" ref="BO20:CS20" si="11">BO4-BO5</f>
+        <f t="shared" ref="BO20:CS20" si="12">BO4-BO5</f>
         <v>1411334.2000000002</v>
       </c>
       <c r="BP20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1106230.6200000001</v>
       </c>
       <c r="BQ20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1452928.5000000009</v>
       </c>
       <c r="BR20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1106298.21</v>
       </c>
       <c r="BS20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1079509.5300000012</v>
       </c>
       <c r="BT20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1102834.1300000008</v>
       </c>
       <c r="BU20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>726214.61999999918</v>
       </c>
       <c r="BV20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1696702.3599999985</v>
       </c>
       <c r="BW20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1275902.3200000003</v>
       </c>
       <c r="BX20" s="11">
-        <f t="shared" si="11"/>
+        <f>BX4-BX5</f>
         <v>1155763.9499999993</v>
       </c>
-      <c r="BY20" s="11"/>
+      <c r="BY20" s="11">
+        <f>BY4-BY5</f>
+        <v>1385949.7800000012</v>
+      </c>
       <c r="BZ20" s="11"/>
       <c r="CA20" s="11"/>
       <c r="CB20" s="11"/>
@@ -6215,355 +6236,358 @@
         <v>1323982.1320702499</v>
       </c>
       <c r="CI20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1298982.1320702499</v>
       </c>
       <c r="CJ20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1330977.1320702499</v>
       </c>
       <c r="CK20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1282339.6320702499</v>
       </c>
       <c r="CL20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1489148.1320702499</v>
       </c>
       <c r="CM20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1486998.1320702499</v>
       </c>
       <c r="CN20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1498993.1320702499</v>
       </c>
       <c r="CO20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1454848.1320702499</v>
       </c>
       <c r="CP20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1505956.6320702499</v>
       </c>
       <c r="CQ20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1582212.8820702499</v>
       </c>
       <c r="CR20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1569430.3820702499</v>
       </c>
       <c r="CS20" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1590792.8820702499</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="12">
-        <f>B20/-(B4)</f>
-        <v>-0.10755606721195753</v>
+        <f t="shared" ref="B21:BM21" si="13">B20/(B4)</f>
+        <v>0.10755606721195753</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:BN21" si="12">C20/-(C4)</f>
-        <v>-9.3122182978882237E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.3122182978882237E-2</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="12"/>
-        <v>-8.3314456185328289E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.3314456185328289E-2</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.12874578074312279</v>
+        <f t="shared" si="13"/>
+        <v>0.12874578074312279</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.12153449299257023</v>
+        <f t="shared" si="13"/>
+        <v>0.12153449299257023</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11052598568967523</v>
+        <f t="shared" si="13"/>
+        <v>0.11052598568967523</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11262875710793399</v>
+        <f t="shared" si="13"/>
+        <v>0.11262875710793399</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11148715632274228</v>
+        <f t="shared" si="13"/>
+        <v>0.11148715632274228</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11927175868158145</v>
+        <f t="shared" si="13"/>
+        <v>0.11927175868158145</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="12"/>
-        <v>-9.8874371849013834E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.8874371849013834E-2</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="12"/>
-        <v>-8.5585231224706806E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.5585231224706806E-2</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.2787934533580438E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.2787934533580438E-2</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.486373706342397E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.486373706342397E-2</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="12"/>
-        <v>-9.963732909619849E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.963732909619849E-2</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.14298434950074318</v>
+        <f t="shared" si="13"/>
+        <v>0.14298434950074318</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.14562081854494199</v>
+        <f t="shared" si="13"/>
+        <v>0.14562081854494199</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.14252527800314324</v>
+        <f t="shared" si="13"/>
+        <v>0.14252527800314324</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.14516448524980169</v>
+        <f t="shared" si="13"/>
+        <v>0.14516448524980169</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.13958586171078902</v>
+        <f t="shared" si="13"/>
+        <v>0.13958586171078902</v>
       </c>
       <c r="U21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.13438580218130045</v>
+        <f t="shared" si="13"/>
+        <v>0.13438580218130045</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.10536375713631418</v>
+        <f t="shared" si="13"/>
+        <v>0.10536375713631418</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="12"/>
-        <v>-9.7426085396274856E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.7426085396274856E-2</v>
       </c>
       <c r="X21" s="12">
-        <f t="shared" si="12"/>
-        <v>-7.6879465825518467E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.6879465825518467E-2</v>
       </c>
       <c r="Y21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.21735613561393544</v>
+        <f t="shared" si="13"/>
+        <v>0.21735613561393544</v>
       </c>
       <c r="Z21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.12856429540281994</v>
+        <f t="shared" si="13"/>
+        <v>0.12856429540281994</v>
       </c>
       <c r="AA21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.10976133133487591</v>
+        <f t="shared" si="13"/>
+        <v>0.10976133133487591</v>
       </c>
       <c r="AB21" s="12">
-        <f t="shared" si="12"/>
-        <v>-8.5253057850761482E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.5253057850761482E-2</v>
       </c>
       <c r="AC21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.79378872688108E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.79378872688108E-2</v>
       </c>
       <c r="AD21" s="12">
-        <f t="shared" si="12"/>
-        <v>-4.3999991453346807E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.3999991453346807E-2</v>
       </c>
       <c r="AE21" s="12">
-        <f t="shared" si="12"/>
-        <v>3.6978290255683488E-3</v>
+        <f t="shared" si="13"/>
+        <v>-3.6978290255683488E-3</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="12"/>
-        <v>4.1807162271674865E-2</v>
+        <f t="shared" si="13"/>
+        <v>-4.1807162271674865E-2</v>
       </c>
       <c r="AG21" s="12">
-        <f t="shared" si="12"/>
-        <v>5.4953737850870522E-2</v>
+        <f t="shared" si="13"/>
+        <v>-5.4953737850870522E-2</v>
       </c>
       <c r="AH21" s="12">
-        <f t="shared" si="12"/>
-        <v>3.2022177475104836E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.2022177475104836E-2</v>
       </c>
       <c r="AI21" s="12">
-        <f t="shared" si="12"/>
-        <v>4.08967189588147E-2</v>
+        <f t="shared" si="13"/>
+        <v>-4.08967189588147E-2</v>
       </c>
       <c r="AJ21" s="12">
-        <f t="shared" si="12"/>
-        <v>-2.9086818563662371E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.9086818563662371E-2</v>
       </c>
       <c r="AK21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.5448577808131033E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.5448577808131033E-2</v>
       </c>
       <c r="AL21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.2515111409238938E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.2515111409238938E-2</v>
       </c>
       <c r="AM21" s="12">
-        <f t="shared" si="12"/>
-        <v>-8.6408147279614392E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.6408147279614392E-2</v>
       </c>
       <c r="AN21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11864550419382719</v>
+        <f t="shared" si="13"/>
+        <v>0.11864550419382719</v>
       </c>
       <c r="AO21" s="12">
-        <f t="shared" si="12"/>
-        <v>-7.3691753325116197E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.3691753325116197E-2</v>
       </c>
       <c r="AP21" s="12">
-        <f t="shared" si="12"/>
-        <v>-5.4210349035791701E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.4210349035791701E-2</v>
       </c>
       <c r="AQ21" s="12">
-        <f t="shared" si="12"/>
-        <v>-4.3202877841082329E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.3202877841082329E-2</v>
       </c>
       <c r="AR21" s="12">
-        <f t="shared" si="12"/>
-        <v>-6.7582754929244204E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.7582754929244204E-2</v>
       </c>
       <c r="AS21" s="12">
-        <f t="shared" si="12"/>
-        <v>-6.9927874012053165E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.9927874012053165E-2</v>
       </c>
       <c r="AT21" s="12">
-        <f t="shared" si="12"/>
-        <v>-9.0710372906443015E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.0710372906443015E-2</v>
       </c>
       <c r="AU21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.11214110808621225</v>
+        <f t="shared" si="13"/>
+        <v>0.11214110808621225</v>
       </c>
       <c r="AV21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.1416528059821002</v>
+        <f t="shared" si="13"/>
+        <v>0.1416528059821002</v>
       </c>
       <c r="AW21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16890052646507489</v>
+        <f t="shared" si="13"/>
+        <v>0.16890052646507489</v>
       </c>
       <c r="AX21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.17812307708462477</v>
+        <f t="shared" si="13"/>
+        <v>0.17812307708462477</v>
       </c>
       <c r="AY21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16417350826326887</v>
+        <f t="shared" si="13"/>
+        <v>0.16417350826326887</v>
       </c>
       <c r="AZ21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.19093306899717799</v>
+        <f t="shared" si="13"/>
+        <v>0.19093306899717799</v>
       </c>
       <c r="BA21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.1661514658454028</v>
+        <f t="shared" si="13"/>
+        <v>0.1661514658454028</v>
       </c>
       <c r="BB21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.17594595251427478</v>
+        <f t="shared" si="13"/>
+        <v>0.17594595251427478</v>
       </c>
       <c r="BC21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16192369283376645</v>
+        <f t="shared" si="13"/>
+        <v>0.16192369283376645</v>
       </c>
       <c r="BD21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.17173476010566097</v>
+        <f t="shared" si="13"/>
+        <v>0.17173476010566097</v>
       </c>
       <c r="BE21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16082320306999873</v>
+        <f t="shared" si="13"/>
+        <v>0.16082320306999873</v>
       </c>
       <c r="BF21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16488289720806601</v>
+        <f t="shared" si="13"/>
+        <v>0.16488289720806601</v>
       </c>
       <c r="BG21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.16203494521752781</v>
+        <f t="shared" si="13"/>
+        <v>0.16203494521752781</v>
       </c>
       <c r="BH21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.14081773729077676</v>
+        <f t="shared" si="13"/>
+        <v>0.14081773729077676</v>
       </c>
       <c r="BI21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.13818919491568205</v>
+        <f t="shared" si="13"/>
+        <v>0.13818919491568205</v>
       </c>
       <c r="BJ21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.18145147877812198</v>
+        <f t="shared" si="13"/>
+        <v>0.18145147877812198</v>
       </c>
       <c r="BK21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.15423844524655003</v>
+        <f t="shared" si="13"/>
+        <v>0.15423844524655003</v>
       </c>
       <c r="BL21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.1745665463663523</v>
+        <f t="shared" si="13"/>
+        <v>0.1745665463663523</v>
       </c>
       <c r="BM21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.13543681860044737</v>
+        <f t="shared" si="13"/>
+        <v>0.13543681860044737</v>
       </c>
       <c r="BN21" s="12">
-        <f t="shared" si="12"/>
-        <v>-0.18190461702289493</v>
+        <f t="shared" ref="BN21:BX21" si="14">BN20/(BN4)</f>
+        <v>0.18190461702289493</v>
       </c>
       <c r="BO21" s="12">
-        <f t="shared" ref="BO21:CS21" si="13">BO20/-(BO4)</f>
-        <v>-0.17530352813233666</v>
+        <f t="shared" si="14"/>
+        <v>0.17530352813233666</v>
       </c>
       <c r="BP21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15078920732527326</v>
+        <f t="shared" si="14"/>
+        <v>0.15078920732527326</v>
       </c>
       <c r="BQ21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.17566700920396558</v>
+        <f t="shared" si="14"/>
+        <v>0.17566700920396558</v>
       </c>
       <c r="BR21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15358551575319243</v>
+        <f t="shared" si="14"/>
+        <v>0.15358551575319243</v>
       </c>
       <c r="BS21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15389777612306235</v>
+        <f t="shared" si="14"/>
+        <v>0.15389777612306235</v>
       </c>
       <c r="BT21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15156254130846458</v>
+        <f t="shared" si="14"/>
+        <v>0.15156254130846458</v>
       </c>
       <c r="BU21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.13071725316042182</v>
+        <f t="shared" si="14"/>
+        <v>0.13071725316042182</v>
       </c>
       <c r="BV21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16909087418867749</v>
+        <f t="shared" si="14"/>
+        <v>0.16909087418867749</v>
       </c>
       <c r="BW21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15369326607821074</v>
+        <f t="shared" si="14"/>
+        <v>0.15369326607821074</v>
       </c>
       <c r="BX21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.13903690290799428</v>
-      </c>
-      <c r="BY21" s="12"/>
+        <f t="shared" si="14"/>
+        <v>0.13903690290799428</v>
+      </c>
+      <c r="BY21" s="12">
+        <f>BY20/(BY4)</f>
+        <v>0.15187602352369151</v>
+      </c>
       <c r="BZ21" s="12"/>
       <c r="CA21" s="12"/>
       <c r="CB21" s="12"/>
@@ -6573,55 +6597,55 @@
       <c r="CF21" s="12"/>
       <c r="CG21" s="12"/>
       <c r="CH21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15799309451912288</v>
+        <f>CH20/(CH4)</f>
+        <v>0.15799309451912288</v>
       </c>
       <c r="CI21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15500980096303699</v>
+        <f t="shared" ref="CI21:CS21" si="15">CI20/(CI4)</f>
+        <v>0.15500980096303699</v>
       </c>
       <c r="CJ21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15526125775097693</v>
+        <f t="shared" si="15"/>
+        <v>0.15526125775097693</v>
       </c>
       <c r="CK21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.14743772717105488</v>
+        <f t="shared" si="15"/>
+        <v>0.14743772717105488</v>
       </c>
       <c r="CL21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16534149026483649</v>
+        <f t="shared" si="15"/>
+        <v>0.16534149026483649</v>
       </c>
       <c r="CM21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16328975260201503</v>
+        <f t="shared" si="15"/>
+        <v>0.16328975260201503</v>
       </c>
       <c r="CN21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16119939047964835</v>
+        <f t="shared" si="15"/>
+        <v>0.16119939047964835</v>
       </c>
       <c r="CO21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.15802401912455871</v>
+        <f t="shared" si="15"/>
+        <v>0.15802401912455871</v>
       </c>
       <c r="CP21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16166138501103</v>
+        <f t="shared" si="15"/>
+        <v>0.16166138501103</v>
       </c>
       <c r="CQ21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16390892800893503</v>
+        <f t="shared" si="15"/>
+        <v>0.16390892800893503</v>
       </c>
       <c r="CR21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16203917010688657</v>
+        <f t="shared" si="15"/>
+        <v>0.16203917010688657</v>
       </c>
       <c r="CS21" s="12">
-        <f t="shared" si="13"/>
-        <v>-0.16215206993224096</v>
+        <f t="shared" si="15"/>
+        <v>0.16215206993224096</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -6630,302 +6654,305 @@
         <v>1306973.8800000008</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22:BN22" si="14">C20+C11</f>
+        <f t="shared" ref="C22:BN22" si="16">C20+C11</f>
         <v>1187591.4500000011</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1154455.6400000001</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1601941.1300000001</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1506689.5300000012</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1400413.3600000006</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1470936.9500000023</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1435392.0799999994</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1497973.91</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1265170.5100000021</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1102795.3600000013</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>877083.95000000065</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>843254.27</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1145282.5800000008</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1538401.1900000004</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1683786.639999998</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1612918.2000000016</v>
       </c>
       <c r="S22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1906802.8599999994</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1548093.0299999998</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1488548.75</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1388581.2199999993</v>
       </c>
       <c r="W22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1216683.6999999997</v>
       </c>
       <c r="X22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1080254.9900000005</v>
       </c>
       <c r="Y22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1716983.62</v>
       </c>
       <c r="Z22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1427890.5399999996</v>
       </c>
       <c r="AA22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1339478.4600000011</v>
       </c>
       <c r="AB22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1169648.7800000017</v>
       </c>
       <c r="AC22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>956502.28999999678</v>
       </c>
       <c r="AD22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>887059.45000000112</v>
       </c>
       <c r="AE22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>486632.86000000063</v>
       </c>
       <c r="AF22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>168635.34999999963</v>
       </c>
       <c r="AG22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92403.099999999045</v>
       </c>
       <c r="AH22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>256123.19</v>
       </c>
       <c r="AI22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>200018.39000000083</v>
       </c>
       <c r="AJ22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>725291.50000000175</v>
       </c>
       <c r="AK22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>902485.54000000085</v>
       </c>
       <c r="AL22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>910937.78999999899</v>
       </c>
       <c r="AM22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1175922.4899999991</v>
       </c>
       <c r="AN22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1508338.2099999986</v>
       </c>
       <c r="AO22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1189147.3999999999</v>
       </c>
       <c r="AP22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>997750.35000000044</v>
       </c>
       <c r="AQ22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>909219.67000000016</v>
       </c>
       <c r="AR22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1101390.4300000002</v>
       </c>
       <c r="AS22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1169786.6100000013</v>
       </c>
       <c r="AT22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1344611.5200000005</v>
       </c>
       <c r="AU22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1558261.3099999996</v>
       </c>
       <c r="AV22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1753950.2999999993</v>
       </c>
       <c r="AW22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1694776.1200000006</v>
       </c>
       <c r="AX22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2036958.5</v>
       </c>
       <c r="AY22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1851134.7599999984</v>
       </c>
       <c r="AZ22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2172914.56</v>
       </c>
       <c r="BA22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1874523.1199999996</v>
       </c>
       <c r="BB22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1957106.7600000002</v>
       </c>
       <c r="BC22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1829667.0600000012</v>
       </c>
       <c r="BD22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1920546.7099999988</v>
       </c>
       <c r="BE22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1806672.3400000017</v>
       </c>
       <c r="BF22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1782500.0499999993</v>
       </c>
       <c r="BG22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1843222.6199999992</v>
       </c>
       <c r="BH22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1660051.6799999974</v>
       </c>
       <c r="BI22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1475535.7899999989</v>
       </c>
       <c r="BJ22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2028697.4100000001</v>
       </c>
       <c r="BK22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1663736.9700000002</v>
       </c>
       <c r="BL22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1911540.9</v>
       </c>
       <c r="BM22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1392516.8799999994</v>
       </c>
       <c r="BN22" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2025511.0799999996</v>
       </c>
       <c r="BO22" s="11">
-        <f t="shared" ref="BO22:CS22" si="15">BO20+BO11</f>
+        <f t="shared" ref="BO22:CS22" si="17">BO20+BO11</f>
         <v>1931685.8800000001</v>
       </c>
       <c r="BP22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1626828.3800000001</v>
       </c>
       <c r="BQ22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1981486.580000001</v>
       </c>
       <c r="BR22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1638257.9100000001</v>
       </c>
       <c r="BS22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1612166.2700000009</v>
       </c>
       <c r="BT22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1625390.2300000009</v>
       </c>
       <c r="BU22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1194716.2599999991</v>
       </c>
       <c r="BV22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2223336.1899999985</v>
       </c>
       <c r="BW22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1808453.0800000003</v>
       </c>
       <c r="BX22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1699700.6099999994</v>
       </c>
-      <c r="BY22" s="11"/>
+      <c r="BY22" s="11">
+        <f t="shared" ref="BY22" si="18">BY20+BY11</f>
+        <v>1942471.5300000012</v>
+      </c>
       <c r="BZ22" s="11"/>
       <c r="CA22" s="11"/>
       <c r="CB22" s="11"/>
@@ -6935,55 +6962,55 @@
       <c r="CF22" s="11"/>
       <c r="CG22" s="11"/>
       <c r="CH22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1853982.1320702499</v>
       </c>
       <c r="CI22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1828982.1320702499</v>
       </c>
       <c r="CJ22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1860977.1320702499</v>
       </c>
       <c r="CK22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1812339.6320702499</v>
       </c>
       <c r="CL22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2019148.1320702499</v>
       </c>
       <c r="CM22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2016998.1320702499</v>
       </c>
       <c r="CN22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2078993.1320702499</v>
       </c>
       <c r="CO22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2034848.1320702499</v>
       </c>
       <c r="CP22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2085956.6320702499</v>
       </c>
       <c r="CQ22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2162212.8820702499</v>
       </c>
       <c r="CR22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2149430.3820702499</v>
       </c>
       <c r="CS22" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2170792.8820702499</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -6992,302 +7019,305 @@
         <v>0.16759079943873331</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:BN23" si="16">C22/C4</f>
+        <f t="shared" ref="C23:BN23" si="19">C22/C4</f>
         <v>0.15289842939957229</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.1400035118280476</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.18210858561833648</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.17653599651746332</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.16616999056101997</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.17231954268711377</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.17283941840536921</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.18082076956955453</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.16553182894669916</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.15514652231177758</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12290079402568189</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12213971314982186</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.16945673992815791</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20673104084078886</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2023864907688375</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20149184683916208</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2532009428483597</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2120240922961012</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20826026711842036</v>
       </c>
       <c r="V23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.19581430861579613</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.17332052190663633</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.15301928214087329</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.30759448093776359</v>
       </c>
       <c r="Z23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2037775461144834</v>
       </c>
       <c r="AA23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.18063146409427303</v>
       </c>
       <c r="AB23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.15400957841164825</v>
       </c>
       <c r="AC23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12729223437530884</v>
       </c>
       <c r="AD23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10553159222333365</v>
       </c>
       <c r="AE23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6.1543687641514043E-2</v>
       </c>
       <c r="AF23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0499571982443419E-2</v>
       </c>
       <c r="AG23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2106445675090201E-2</v>
       </c>
       <c r="AH23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.1859280707951868E-2</v>
       </c>
       <c r="AI23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.5695580743079989E-2</v>
       </c>
       <c r="AJ23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9.8843954010118223E-2</v>
       </c>
       <c r="AK23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.14858608150355901</v>
       </c>
       <c r="AL23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12676330528136978</v>
       </c>
       <c r="AM23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.15861432776137604</v>
       </c>
       <c r="AN23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.18926235658708013</v>
       </c>
       <c r="AO23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.13979342923786617</v>
       </c>
       <c r="AP23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12314697120855685</v>
       </c>
       <c r="AQ23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.11183781457814747</v>
       </c>
       <c r="AR23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.13687347426272967</v>
       </c>
       <c r="AS23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.13595675356074746</v>
       </c>
       <c r="AT23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.15344603811372934</v>
       </c>
       <c r="AU23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.17352520705187555</v>
       </c>
       <c r="AV23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20416803819035742</v>
       </c>
       <c r="AW23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.25045584625988981</v>
       </c>
       <c r="AX23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2423992275663322</v>
       </c>
       <c r="AY23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.23198975945672765</v>
       </c>
       <c r="AZ23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2542421868634463</v>
       </c>
       <c r="BA23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.23275319535774885</v>
       </c>
       <c r="BB23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2419780551995995</v>
       </c>
       <c r="BC23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2286061746796049</v>
       </c>
       <c r="BD23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.23803578510112081</v>
       </c>
       <c r="BE23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.22807343713541456</v>
       </c>
       <c r="BF23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.23541540771704914</v>
       </c>
       <c r="BG23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.22817103244107359</v>
       </c>
       <c r="BH23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.20706537813178197</v>
       </c>
       <c r="BI23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.2133501292709202</v>
       </c>
       <c r="BJ23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24281463137414194</v>
       </c>
       <c r="BK23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.22230075165874172</v>
       </c>
       <c r="BL23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.23823633378909925</v>
       </c>
       <c r="BM23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.21396990566736679</v>
       </c>
       <c r="BN23" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24362947763481962</v>
       </c>
       <c r="BO23" s="12">
-        <f t="shared" ref="BO23:CS23" si="17">BO22/BO4</f>
+        <f t="shared" ref="BO23:CS23" si="20">BO22/BO4</f>
         <v>0.23993703972270883</v>
       </c>
       <c r="BP23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.2217513757433856</v>
       </c>
       <c r="BQ23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.23957257448414995</v>
       </c>
       <c r="BR23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22743658424982641</v>
       </c>
       <c r="BS23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22983475068868764</v>
       </c>
       <c r="BT23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22337744831740899</v>
       </c>
       <c r="BU23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.21504665908997042</v>
       </c>
       <c r="BV23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22157443099355603</v>
       </c>
       <c r="BW23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.21784352615206448</v>
       </c>
       <c r="BX23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.20447177703131225</v>
       </c>
-      <c r="BY23" s="12"/>
+      <c r="BY23" s="12">
+        <f t="shared" ref="BY23" si="21">BY22/BY4</f>
+        <v>0.21286114117668892</v>
+      </c>
       <c r="BZ23" s="12"/>
       <c r="CA23" s="12"/>
       <c r="CB23" s="12"/>
@@ -7297,58 +7327,58 @@
       <c r="CF23" s="12"/>
       <c r="CG23" s="12"/>
       <c r="CH23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22123891790814437</v>
       </c>
       <c r="CI23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.21825562435205845</v>
       </c>
       <c r="CJ23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.21708686288366869</v>
       </c>
       <c r="CK23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.2083747780477436</v>
       </c>
       <c r="CL23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22418787898409481</v>
       </c>
       <c r="CM23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22148993928185909</v>
       </c>
       <c r="CN23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22357168857621787</v>
       </c>
       <c r="CO23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22102298724490849</v>
       </c>
       <c r="CP23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22392320670605442</v>
       </c>
       <c r="CQ23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22399387569359266</v>
       </c>
       <c r="CR23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22192250085904186</v>
       </c>
       <c r="CS23" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.22127240019063757</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -7577,7 +7607,9 @@
       <c r="BX25" s="13">
         <v>151432.77999999997</v>
       </c>
-      <c r="BY25" s="13"/>
+      <c r="BY25" s="13">
+        <v>151414.57999999996</v>
+      </c>
       <c r="BZ25" s="13"/>
       <c r="CA25" s="13"/>
       <c r="CB25" s="13"/>
@@ -7623,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -7852,7 +7884,9 @@
       <c r="BX26" s="13">
         <v>84554</v>
       </c>
-      <c r="BY26" s="13"/>
+      <c r="BY26" s="13">
+        <v>76945</v>
+      </c>
       <c r="BZ26" s="13"/>
       <c r="CA26" s="13"/>
       <c r="CB26" s="13"/>
@@ -7898,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -8127,7 +8161,9 @@
       <c r="BX27" s="13">
         <v>0</v>
       </c>
-      <c r="BY27" s="13"/>
+      <c r="BY27" s="13">
+        <v>0</v>
+      </c>
       <c r="BZ27" s="13"/>
       <c r="CA27" s="13"/>
       <c r="CB27" s="13"/>
@@ -8173,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -8402,7 +8438,9 @@
       <c r="BX28" s="13">
         <v>184</v>
       </c>
-      <c r="BY28" s="13"/>
+      <c r="BY28" s="13">
+        <v>11831.630000000001</v>
+      </c>
       <c r="BZ28" s="13"/>
       <c r="CA28" s="13"/>
       <c r="CB28" s="13"/>
@@ -8448,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -8723,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -8952,7 +8990,9 @@
       <c r="BX30" s="13">
         <v>38568.610000000044</v>
       </c>
-      <c r="BY30" s="13"/>
+      <c r="BY30" s="13">
+        <v>33068</v>
+      </c>
       <c r="BZ30" s="13"/>
       <c r="CA30" s="13"/>
       <c r="CB30" s="13"/>
@@ -8998,10 +9038,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -9010,302 +9050,305 @@
         <v>323175.7</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" ref="C32:BN32" si="18">SUM(C25:C31)</f>
+        <f t="shared" ref="C32:BN32" si="22">SUM(C25:C31)</f>
         <v>322000.14999999997</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>315158.57000000007</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>360057.82000000007</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>338243.41</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>301659.18999999994</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>362774.6700000001</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>275497.38</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>306120.97000000003</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>326315.21999999997</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>403748.80000000005</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>482150.1399999999</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>307287.43999999994</v>
       </c>
       <c r="O32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>310253.21000000002</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>279554.58999999997</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>291611.59999999998</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>249721.04</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>275459.41000000003</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>265975.33000000007</v>
       </c>
       <c r="U32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>252325.85000000003</v>
       </c>
       <c r="V32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>304247.72000000003</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>365048.28999999992</v>
       </c>
       <c r="X32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>368860.87</v>
       </c>
       <c r="Y32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>53492.45</v>
       </c>
       <c r="Z32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>323531.16000000003</v>
       </c>
       <c r="AA32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>343292.56000000006</v>
       </c>
       <c r="AB32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>334434.39</v>
       </c>
       <c r="AC32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>309832.96000000008</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>299862.52999999997</v>
       </c>
       <c r="AE32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>294269.2099999999</v>
       </c>
       <c r="AF32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>268355.64</v>
       </c>
       <c r="AG32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>268996.96999999997</v>
       </c>
       <c r="AH32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>262447.62</v>
       </c>
       <c r="AI32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>331110.10000000009</v>
       </c>
       <c r="AJ32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>365623.49000000005</v>
       </c>
       <c r="AK32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>315294.37999999995</v>
       </c>
       <c r="AL32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>319571.96999999997</v>
       </c>
       <c r="AM32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>328132.55</v>
       </c>
       <c r="AN32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>351746.08000000007</v>
       </c>
       <c r="AO32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>353106.21</v>
       </c>
       <c r="AP32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>327395.07999999996</v>
       </c>
       <c r="AQ32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>327830.2099999999</v>
       </c>
       <c r="AR32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>318001.46000000002</v>
       </c>
       <c r="AS32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>381227.99999999994</v>
       </c>
       <c r="AT32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>302559.49999999994</v>
       </c>
       <c r="AU32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>354922.69</v>
       </c>
       <c r="AV32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>365101.84</v>
       </c>
       <c r="AW32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>271066.65999999997</v>
       </c>
       <c r="AX32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>322322.87</v>
       </c>
       <c r="AY32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>328213.03999999992</v>
       </c>
       <c r="AZ32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>325921.13999999996</v>
       </c>
       <c r="BA32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>311285.00999999995</v>
       </c>
       <c r="BB32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>319585.48</v>
       </c>
       <c r="BC32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>318715.28999999998</v>
       </c>
       <c r="BD32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>340308.45</v>
       </c>
       <c r="BE32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>321670.89999999997</v>
       </c>
       <c r="BF32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>370765.29</v>
       </c>
       <c r="BG32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>374972.66</v>
       </c>
       <c r="BH32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>384771.48000000004</v>
       </c>
       <c r="BI32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>163287.55000000002</v>
       </c>
       <c r="BJ32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>350279.44999999995</v>
       </c>
       <c r="BK32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>318042.7</v>
       </c>
       <c r="BL32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>343155.73</v>
       </c>
       <c r="BM32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>304299.98999999993</v>
       </c>
       <c r="BN32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>306941.07999999996</v>
       </c>
       <c r="BO32" s="14">
-        <f t="shared" ref="BO32:BX32" si="19">SUM(BO25:BO31)</f>
+        <f t="shared" ref="BO32:BY32" si="23">SUM(BO25:BO31)</f>
         <v>303163.39</v>
       </c>
       <c r="BP32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>285579.1700000001</v>
       </c>
       <c r="BQ32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>240697.48</v>
       </c>
       <c r="BR32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>272531.71000000002</v>
       </c>
       <c r="BS32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>273293.86</v>
       </c>
       <c r="BT32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>294638.98</v>
       </c>
       <c r="BU32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>269489.18000000011</v>
       </c>
       <c r="BV32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>357522.55999999994</v>
       </c>
       <c r="BW32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>305756.74</v>
       </c>
       <c r="BX32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>274739.39</v>
       </c>
-      <c r="BY32" s="14"/>
+      <c r="BY32" s="14">
+        <f t="shared" si="23"/>
+        <v>273259.20999999996</v>
+      </c>
       <c r="BZ32" s="14"/>
       <c r="CA32" s="14"/>
       <c r="CB32" s="14"/>
@@ -9351,7 +9394,7 @@
         <v>301680.00000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -9580,7 +9623,9 @@
       <c r="BX33" s="2">
         <v>148500.86000000002</v>
       </c>
-      <c r="BY33" s="2"/>
+      <c r="BY33" s="2">
+        <v>179850.97</v>
+      </c>
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
@@ -9626,10 +9671,10 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -9858,7 +9903,9 @@
       <c r="BX35" s="13">
         <v>39342.53</v>
       </c>
-      <c r="BY35" s="13"/>
+      <c r="BY35" s="13">
+        <v>37342.44</v>
+      </c>
       <c r="BZ35" s="13"/>
       <c r="CA35" s="13"/>
       <c r="CB35" s="13"/>
@@ -9904,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -10133,7 +10180,9 @@
       <c r="BX36" s="13">
         <v>9053.74</v>
       </c>
-      <c r="BY36" s="13"/>
+      <c r="BY36" s="13">
+        <v>10399.339999999998</v>
+      </c>
       <c r="BZ36" s="13"/>
       <c r="CA36" s="13"/>
       <c r="CB36" s="13"/>
@@ -10179,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -10253,10 +10302,18 @@
       <c r="BS37" s="13"/>
       <c r="BT37" s="13"/>
       <c r="BU37" s="13"/>
-      <c r="BV37" s="13"/>
-      <c r="BW37" s="13"/>
-      <c r="BX37" s="13"/>
-      <c r="BY37" s="13"/>
+      <c r="BV37" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="13">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="13">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="13">
+        <v>0</v>
+      </c>
       <c r="BZ37" s="13"/>
       <c r="CA37" s="13"/>
       <c r="CB37" s="13"/>
@@ -10278,7 +10335,7 @@
       <c r="CR37" s="13"/>
       <c r="CS37" s="13"/>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -10507,7 +10564,9 @@
       <c r="BX38" s="13">
         <v>253617.86000000002</v>
       </c>
-      <c r="BY38" s="13"/>
+      <c r="BY38" s="13">
+        <v>245518.9</v>
+      </c>
       <c r="BZ38" s="13"/>
       <c r="CA38" s="13"/>
       <c r="CB38" s="13"/>
@@ -10553,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -10562,302 +10621,305 @@
         <v>62485.61</v>
       </c>
       <c r="C39" s="15">
-        <f t="shared" ref="C39:BN39" si="20">C35+C36</f>
+        <f t="shared" ref="C39:BN39" si="24">C35+C36</f>
         <v>66120.560000000012</v>
       </c>
       <c r="D39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>87056.09</v>
       </c>
       <c r="E39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>79151.100000000006</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>70129.01999999999</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>75296.97</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>86908.15</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>72570.530000000013</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>90843.450000000012</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>91425.91</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>87355.199999999997</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>92402.74000000002</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>83131.42</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68179.17</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>61075.599999999991</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>61411.55</v>
       </c>
       <c r="R39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50517.89</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>41821.53</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>42632.22</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>40273.659999999996</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>43601.67</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>54353.99</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>53528.43</v>
       </c>
       <c r="Y39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68006.75</v>
       </c>
       <c r="Z39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>43619.11</v>
       </c>
       <c r="AA39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>43516.909999999996</v>
       </c>
       <c r="AB39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>44548.45</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>46283.579999999994</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>43989.72</v>
       </c>
       <c r="AE39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48860.29</v>
       </c>
       <c r="AF39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48206.18</v>
       </c>
       <c r="AG39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>39981.32</v>
       </c>
       <c r="AH39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>47344.649999999994</v>
       </c>
       <c r="AI39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>51381.77</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>49866.119999999995</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>56048.61</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50381.649999999994</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>42361.95</v>
       </c>
       <c r="AN39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>51603.91</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>45610.6</v>
       </c>
       <c r="AP39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48824.06</v>
       </c>
       <c r="AQ39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>49109.55</v>
       </c>
       <c r="AR39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>49179.58</v>
       </c>
       <c r="AS39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>20748.53</v>
       </c>
       <c r="AT39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>52357.53</v>
       </c>
       <c r="AU39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>49355.39</v>
       </c>
       <c r="AV39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>47066.89</v>
       </c>
       <c r="AW39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>66675</v>
       </c>
       <c r="AX39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>47645.18</v>
       </c>
       <c r="AY39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>45567.450000000004</v>
       </c>
       <c r="AZ39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>45896.91</v>
       </c>
       <c r="BA39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48304.150000000009</v>
       </c>
       <c r="BB39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>66547.83</v>
       </c>
       <c r="BC39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>46530.820000000007</v>
       </c>
       <c r="BD39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>76545.16</v>
       </c>
       <c r="BE39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>33849.440000000002</v>
       </c>
       <c r="BF39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>58526.000000000007</v>
       </c>
       <c r="BG39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50048.679999999993</v>
       </c>
       <c r="BH39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>44477.04</v>
       </c>
       <c r="BI39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>56704.75</v>
       </c>
       <c r="BJ39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>46635.13</v>
       </c>
       <c r="BK39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>46423.91</v>
       </c>
       <c r="BL39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>50343.25</v>
       </c>
       <c r="BM39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>47911.4</v>
       </c>
       <c r="BN39" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>53090.069999999992</v>
       </c>
       <c r="BO39" s="15">
-        <f t="shared" ref="BO39:CS39" si="21">BO35+BO36</f>
+        <f t="shared" ref="BO39:CS39" si="25">BO35+BO36</f>
         <v>46803.319999999992</v>
       </c>
       <c r="BP39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>52028.299999999996</v>
       </c>
       <c r="BQ39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>49585.659999999996</v>
       </c>
       <c r="BR39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>48831.360000000001</v>
       </c>
       <c r="BS39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>48330</v>
       </c>
       <c r="BT39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>43169.84</v>
       </c>
       <c r="BU39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>41558.839999999997</v>
       </c>
       <c r="BV39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>49400.75</v>
       </c>
       <c r="BW39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>45939.839999999997</v>
       </c>
       <c r="BX39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>48396.27</v>
       </c>
-      <c r="BY39" s="15"/>
+      <c r="BY39" s="15">
+        <f t="shared" si="25"/>
+        <v>47741.78</v>
+      </c>
       <c r="BZ39" s="15"/>
       <c r="CA39" s="15"/>
       <c r="CB39" s="15"/>
@@ -10867,58 +10929,58 @@
       <c r="CF39" s="15"/>
       <c r="CG39" s="15"/>
       <c r="CH39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CI39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CJ39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CK39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CL39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CM39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CN39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CO39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CP39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CQ39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CR39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CS39" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -10927,302 +10989,305 @@
         <v>259075.36</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" ref="C41:BN41" si="22">SUM(C38:C40)</f>
+        <f t="shared" ref="C41:BN41" si="26">SUM(C38:C40)</f>
         <v>272889.74</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>274455.3</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>267193.73</v>
       </c>
       <c r="F41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>263524.14</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>252907.80000000002</v>
       </c>
       <c r="H41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>290920.17</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>254905.41000000003</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>307740.15999999997</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>303888.93</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>306222.99</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>280043.93999999994</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>279949.26</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>261124.83999999997</v>
       </c>
       <c r="P41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>247525.25</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>248272.25</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>216685.09999999998</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>220638.03</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>220642.59</v>
       </c>
       <c r="U41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>222776.95999999999</v>
       </c>
       <c r="V41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>233384.69</v>
       </c>
       <c r="W41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>242572.68999999997</v>
       </c>
       <c r="X41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>248895.06999999998</v>
       </c>
       <c r="Y41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>164185.60000000003</v>
       </c>
       <c r="Z41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>222718.14999999997</v>
       </c>
       <c r="AA41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>228205.2</v>
       </c>
       <c r="AB41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>229619.32</v>
       </c>
       <c r="AC41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>208259.99999999997</v>
       </c>
       <c r="AD41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>254256.84</v>
       </c>
       <c r="AE41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>240669.27000000002</v>
       </c>
       <c r="AF41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>237624.57</v>
       </c>
       <c r="AG41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>223165.36000000002</v>
       </c>
       <c r="AH41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>220963.4</v>
       </c>
       <c r="AI41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>263518.68000000005</v>
       </c>
       <c r="AJ41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>247459.96</v>
       </c>
       <c r="AK41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>93897.52</v>
       </c>
       <c r="AL41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>229608.95999999999</v>
       </c>
       <c r="AM41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>211023.5</v>
       </c>
       <c r="AN41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>248158.05</v>
       </c>
       <c r="AO41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>244956.99</v>
       </c>
       <c r="AP41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>246289.56000000003</v>
       </c>
       <c r="AQ41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>260477.35000000003</v>
       </c>
       <c r="AR41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>255175.60000000003</v>
       </c>
       <c r="AS41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>190338.00999999998</v>
       </c>
       <c r="AT41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>252426.66</v>
       </c>
       <c r="AU41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>244020.57</v>
       </c>
       <c r="AV41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>265057.30000000005</v>
       </c>
       <c r="AW41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>196850.73</v>
       </c>
       <c r="AX41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>230628.00999999998</v>
       </c>
       <c r="AY41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>227004.39</v>
       </c>
       <c r="AZ41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>241136.97</v>
       </c>
       <c r="BA41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>227696.17000000004</v>
       </c>
       <c r="BB41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>250399.96000000002</v>
       </c>
       <c r="BC41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>224033.77000000002</v>
       </c>
       <c r="BD41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>257934.19000000003</v>
       </c>
       <c r="BE41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>231539.25999999998</v>
       </c>
       <c r="BF41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>264570.42000000004</v>
       </c>
       <c r="BG41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>278619.38</v>
       </c>
       <c r="BH41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>274298.36</v>
       </c>
       <c r="BI41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>249848.66999999998</v>
       </c>
       <c r="BJ41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>279419.88</v>
       </c>
       <c r="BK41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>279572.96000000002</v>
       </c>
       <c r="BL41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>291711.74</v>
       </c>
       <c r="BM41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>255491.31000000003</v>
       </c>
       <c r="BN41" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>290441.89</v>
       </c>
       <c r="BO41" s="14">
-        <f t="shared" ref="BO41:BX41" si="23">SUM(BO38:BO40)</f>
+        <f t="shared" ref="BO41:BY41" si="27">SUM(BO38:BO40)</f>
         <v>275056.41000000003</v>
       </c>
       <c r="BP41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>239221.53999999998</v>
       </c>
       <c r="BQ41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>265459.95999999996</v>
       </c>
       <c r="BR41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>284793.98</v>
       </c>
       <c r="BS41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>272933.52999999997</v>
       </c>
       <c r="BT41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>258995.73999999996</v>
       </c>
       <c r="BU41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>20367.149999999998</v>
       </c>
       <c r="BV41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>358612.72</v>
       </c>
       <c r="BW41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>278087.10999999993</v>
       </c>
       <c r="BX41" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>302014.13</v>
       </c>
-      <c r="BY41" s="14"/>
+      <c r="BY41" s="14">
+        <f t="shared" si="27"/>
+        <v>293260.68</v>
+      </c>
       <c r="BZ41" s="14"/>
       <c r="CA41" s="14"/>
       <c r="CB41" s="14"/>
@@ -11268,10 +11333,10 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -11500,7 +11565,9 @@
       <c r="BX43" s="13">
         <v>389838.77</v>
       </c>
-      <c r="BY43" s="13"/>
+      <c r="BY43" s="13">
+        <v>335692.01</v>
+      </c>
       <c r="BZ43" s="13"/>
       <c r="CA43" s="13"/>
       <c r="CB43" s="13"/>
@@ -11546,7 +11613,7 @@
         <v>421851.49999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -11775,7 +11842,9 @@
       <c r="BX44" s="13">
         <v>31066.46</v>
       </c>
-      <c r="BY44" s="13"/>
+      <c r="BY44" s="13">
+        <v>37608.080000000002</v>
+      </c>
       <c r="BZ44" s="13"/>
       <c r="CA44" s="13"/>
       <c r="CB44" s="13"/>
@@ -11821,7 +11890,7 @@
         <v>44147.250000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -12050,7 +12119,9 @@
       <c r="BX45" s="13">
         <v>13714.14</v>
       </c>
-      <c r="BY45" s="13"/>
+      <c r="BY45" s="13">
+        <v>13714.14</v>
+      </c>
       <c r="BZ45" s="13"/>
       <c r="CA45" s="13"/>
       <c r="CB45" s="13"/>
@@ -12096,314 +12167,317 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B47" s="10">
-        <f>B43+B44</f>
-        <v>289768.95</v>
+        <f t="shared" ref="B47:BM47" si="28">B43+B44+B45</f>
+        <v>305812.94</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" ref="C47:BN47" si="24">C43+C44</f>
-        <v>284471.29000000004</v>
+        <f t="shared" si="28"/>
+        <v>316559.27</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" si="24"/>
-        <v>351774.38</v>
+        <f t="shared" si="28"/>
+        <v>366213.97000000003</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="24"/>
-        <v>286368.56</v>
+        <f t="shared" si="28"/>
+        <v>300808.15999999997</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="24"/>
-        <v>295868.74</v>
+        <f t="shared" si="28"/>
+        <v>310308.33999999997</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="24"/>
-        <v>286374.97000000003</v>
+        <f t="shared" si="28"/>
+        <v>300814.57</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="24"/>
-        <v>285242.27</v>
+        <f t="shared" si="28"/>
+        <v>299681.87</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="24"/>
-        <v>286730.56999999995</v>
+        <f t="shared" si="28"/>
+        <v>301170.16999999993</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="24"/>
-        <v>279643.28999999998</v>
+        <f t="shared" si="28"/>
+        <v>294082.88999999996</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="24"/>
-        <v>287191.45</v>
+        <f t="shared" si="28"/>
+        <v>301631.05</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="24"/>
-        <v>281679.49</v>
+        <f t="shared" si="28"/>
+        <v>296119.08999999997</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="24"/>
-        <v>278151.64</v>
+        <f t="shared" si="28"/>
+        <v>292591.24</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="24"/>
-        <v>255913.77</v>
+        <f t="shared" si="28"/>
+        <v>272453.70999999996</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="24"/>
-        <v>237034.88</v>
+        <f t="shared" si="28"/>
+        <v>253574.82</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="24"/>
-        <v>250999.62</v>
+        <f t="shared" si="28"/>
+        <v>267539.56</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="24"/>
-        <v>231529.28999999998</v>
+        <f t="shared" si="28"/>
+        <v>248069.22999999998</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="24"/>
-        <v>229459.97</v>
+        <f t="shared" si="28"/>
+        <v>245999.91</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="24"/>
-        <v>271776.16000000003</v>
+        <f t="shared" si="28"/>
+        <v>288316.10000000003</v>
       </c>
       <c r="T47" s="10">
-        <f t="shared" si="24"/>
-        <v>266128.86</v>
+        <f t="shared" si="28"/>
+        <v>282668.79999999999</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="24"/>
-        <v>264774.87</v>
+        <f t="shared" si="28"/>
+        <v>281314.81</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="24"/>
-        <v>269150.44</v>
+        <f t="shared" si="28"/>
+        <v>285690.38</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="24"/>
-        <v>252775.44999999998</v>
+        <f t="shared" si="28"/>
+        <v>269315.38999999996</v>
       </c>
       <c r="X47" s="10">
-        <f t="shared" si="24"/>
-        <v>239407.34</v>
+        <f t="shared" si="28"/>
+        <v>255947.28</v>
       </c>
       <c r="Y47" s="10">
-        <f t="shared" si="24"/>
-        <v>-102078.57</v>
+        <f t="shared" si="28"/>
+        <v>-85538.63</v>
       </c>
       <c r="Z47" s="10">
-        <f t="shared" si="24"/>
-        <v>179575.7</v>
+        <f t="shared" si="28"/>
+        <v>194687.26</v>
       </c>
       <c r="AA47" s="10">
-        <f t="shared" si="24"/>
-        <v>169307.78000000003</v>
+        <f t="shared" si="28"/>
+        <v>184419.34000000003</v>
       </c>
       <c r="AB47" s="10">
-        <f t="shared" si="24"/>
-        <v>200822.28999999998</v>
+        <f t="shared" si="28"/>
+        <v>215933.84999999998</v>
       </c>
       <c r="AC47" s="10">
-        <f t="shared" si="24"/>
-        <v>206462.52999999997</v>
+        <f t="shared" si="28"/>
+        <v>221574.08999999997</v>
       </c>
       <c r="AD47" s="10">
-        <f t="shared" si="24"/>
-        <v>213143.07</v>
+        <f t="shared" si="28"/>
+        <v>228254.63</v>
       </c>
       <c r="AE47" s="10">
-        <f t="shared" si="24"/>
-        <v>197789.86</v>
+        <f t="shared" si="28"/>
+        <v>212901.41999999998</v>
       </c>
       <c r="AF47" s="10">
-        <f t="shared" si="24"/>
-        <v>228194.45</v>
+        <f t="shared" si="28"/>
+        <v>243306.01</v>
       </c>
       <c r="AG47" s="10">
-        <f t="shared" si="24"/>
-        <v>210183.32</v>
+        <f t="shared" si="28"/>
+        <v>225294.88</v>
       </c>
       <c r="AH47" s="10">
-        <f t="shared" si="24"/>
-        <v>208918.13</v>
+        <f t="shared" si="28"/>
+        <v>224029.69</v>
       </c>
       <c r="AI47" s="10">
-        <f t="shared" si="24"/>
-        <v>207869</v>
+        <f t="shared" si="28"/>
+        <v>222980.56</v>
       </c>
       <c r="AJ47" s="10">
-        <f t="shared" si="24"/>
-        <v>218249.12000000002</v>
+        <f t="shared" si="28"/>
+        <v>233360.68000000002</v>
       </c>
       <c r="AK47" s="10">
-        <f t="shared" si="24"/>
-        <v>101021.53000000001</v>
+        <f t="shared" si="28"/>
+        <v>116133.09000000001</v>
       </c>
       <c r="AL47" s="10">
-        <f t="shared" si="24"/>
-        <v>205290.04</v>
+        <f t="shared" si="28"/>
+        <v>219571.35</v>
       </c>
       <c r="AM47" s="10">
-        <f t="shared" si="24"/>
-        <v>204196.22</v>
+        <f t="shared" si="28"/>
+        <v>218477.53</v>
       </c>
       <c r="AN47" s="10">
-        <f t="shared" si="24"/>
-        <v>217656.32000000001</v>
+        <f t="shared" si="28"/>
+        <v>231937.63</v>
       </c>
       <c r="AO47" s="10">
-        <f t="shared" si="24"/>
-        <v>239135.36000000002</v>
+        <f t="shared" si="28"/>
+        <v>254050.88</v>
       </c>
       <c r="AP47" s="10">
-        <f t="shared" si="24"/>
-        <v>228671.80000000002</v>
+        <f t="shared" si="28"/>
+        <v>243587.32</v>
       </c>
       <c r="AQ47" s="10">
-        <f t="shared" si="24"/>
-        <v>264386.32</v>
+        <f t="shared" si="28"/>
+        <v>279301.84000000003</v>
       </c>
       <c r="AR47" s="10">
-        <f t="shared" si="24"/>
-        <v>279543.54000000004</v>
+        <f t="shared" si="28"/>
+        <v>294459.06000000006</v>
       </c>
       <c r="AS47" s="10">
-        <f t="shared" si="24"/>
-        <v>324361.30999999994</v>
+        <f t="shared" si="28"/>
+        <v>339276.82999999996</v>
       </c>
       <c r="AT47" s="10">
-        <f t="shared" si="24"/>
-        <v>352371.27</v>
+        <f t="shared" si="28"/>
+        <v>367286.79000000004</v>
       </c>
       <c r="AU47" s="10">
-        <f t="shared" si="24"/>
-        <v>420715.46</v>
+        <f t="shared" si="28"/>
+        <v>435630.98000000004</v>
       </c>
       <c r="AV47" s="10">
-        <f t="shared" si="24"/>
-        <v>514962.31</v>
+        <f t="shared" si="28"/>
+        <v>529877.82999999996</v>
       </c>
       <c r="AW47" s="10">
-        <f t="shared" si="24"/>
-        <v>359471.13</v>
+        <f t="shared" si="28"/>
+        <v>374386.65</v>
       </c>
       <c r="AX47" s="10">
-        <f t="shared" si="24"/>
-        <v>383785.11</v>
+        <f t="shared" si="28"/>
+        <v>399152.07</v>
       </c>
       <c r="AY47" s="10">
-        <f t="shared" si="24"/>
-        <v>392407.1</v>
+        <f t="shared" si="28"/>
+        <v>407774.06</v>
       </c>
       <c r="AZ47" s="10">
-        <f t="shared" si="24"/>
-        <v>425653.27999999997</v>
+        <f t="shared" si="28"/>
+        <v>441020.24</v>
       </c>
       <c r="BA47" s="10">
-        <f t="shared" si="24"/>
-        <v>451829.17000000004</v>
+        <f t="shared" si="28"/>
+        <v>467196.13000000006</v>
       </c>
       <c r="BB47" s="10">
-        <f t="shared" si="24"/>
-        <v>457218.37000000005</v>
+        <f t="shared" si="28"/>
+        <v>472585.33000000007</v>
       </c>
       <c r="BC47" s="10">
-        <f t="shared" si="24"/>
-        <v>439092.42</v>
+        <f t="shared" si="28"/>
+        <v>454459.38</v>
       </c>
       <c r="BD47" s="10">
-        <f t="shared" si="24"/>
-        <v>454627.51</v>
+        <f t="shared" si="28"/>
+        <v>469994.47000000003</v>
       </c>
       <c r="BE47" s="10">
-        <f t="shared" si="24"/>
-        <v>425905.3</v>
+        <f t="shared" si="28"/>
+        <v>441272.26</v>
       </c>
       <c r="BF47" s="10">
-        <f t="shared" si="24"/>
-        <v>422544.09</v>
+        <f t="shared" si="28"/>
+        <v>437911.05000000005</v>
       </c>
       <c r="BG47" s="10">
-        <f t="shared" si="24"/>
-        <v>459393.75</v>
+        <f t="shared" si="28"/>
+        <v>474760.71</v>
       </c>
       <c r="BH47" s="10">
-        <f t="shared" si="24"/>
-        <v>385328.98000000004</v>
+        <f t="shared" si="28"/>
+        <v>400695.94000000006</v>
       </c>
       <c r="BI47" s="10">
-        <f t="shared" si="24"/>
-        <v>-299108.98000000004</v>
+        <f t="shared" si="28"/>
+        <v>-283742.02</v>
       </c>
       <c r="BJ47" s="10">
-        <f t="shared" si="24"/>
-        <v>438253.29</v>
+        <f t="shared" si="28"/>
+        <v>452306.13</v>
       </c>
       <c r="BK47" s="10">
-        <f t="shared" si="24"/>
-        <v>393046.31</v>
+        <f t="shared" si="28"/>
+        <v>407099.15</v>
       </c>
       <c r="BL47" s="10">
-        <f t="shared" si="24"/>
-        <v>375557.52</v>
+        <f t="shared" si="28"/>
+        <v>389610.36000000004</v>
       </c>
       <c r="BM47" s="10">
-        <f t="shared" si="24"/>
-        <v>364632.52</v>
+        <f t="shared" si="28"/>
+        <v>378685.36000000004</v>
       </c>
       <c r="BN47" s="10">
-        <f t="shared" si="24"/>
-        <v>353761.69000000006</v>
+        <f t="shared" ref="BN47:BU47" si="29">BN43+BN44+BN45</f>
+        <v>367814.53000000009</v>
       </c>
       <c r="BO47" s="10">
-        <f t="shared" ref="BO47:CS47" si="25">BO43+BO44</f>
-        <v>404791.92000000004</v>
+        <f t="shared" si="29"/>
+        <v>418844.76000000007</v>
       </c>
       <c r="BP47" s="10">
-        <f t="shared" si="25"/>
-        <v>406359.11000000004</v>
+        <f t="shared" si="29"/>
+        <v>420411.95000000007</v>
       </c>
       <c r="BQ47" s="10">
-        <f t="shared" si="25"/>
-        <v>458034.12</v>
+        <f t="shared" si="29"/>
+        <v>472086.96</v>
       </c>
       <c r="BR47" s="10">
-        <f t="shared" si="25"/>
-        <v>429920.52</v>
+        <f t="shared" si="29"/>
+        <v>443973.36000000004</v>
       </c>
       <c r="BS47" s="10">
-        <f t="shared" si="25"/>
-        <v>440970.51999999996</v>
+        <f t="shared" si="29"/>
+        <v>455023.35999999999</v>
       </c>
       <c r="BT47" s="10">
-        <f t="shared" si="25"/>
-        <v>414992.37999999995</v>
+        <f t="shared" si="29"/>
+        <v>429045.22</v>
       </c>
       <c r="BU47" s="10">
-        <f t="shared" si="25"/>
-        <v>238701.77</v>
+        <f t="shared" si="29"/>
+        <v>252754.61</v>
       </c>
       <c r="BV47" s="10">
-        <f t="shared" si="25"/>
-        <v>499150.61</v>
+        <f>BV43+BV44+BV45</f>
+        <v>512864.75</v>
       </c>
       <c r="BW47" s="10">
-        <f t="shared" si="25"/>
-        <v>317419.28000000003</v>
+        <f t="shared" ref="BW47:BY47" si="30">BW43+BW44+BW45</f>
+        <v>331133.42000000004</v>
       </c>
       <c r="BX47" s="10">
-        <f t="shared" si="25"/>
-        <v>420905.23000000004</v>
-      </c>
-      <c r="BY47" s="10"/>
+        <f t="shared" si="30"/>
+        <v>434619.37000000005</v>
+      </c>
+      <c r="BY47" s="10">
+        <f t="shared" si="30"/>
+        <v>387014.23000000004</v>
+      </c>
       <c r="BZ47" s="10"/>
       <c r="CA47" s="10"/>
       <c r="CB47" s="10"/>
@@ -12413,58 +12487,58 @@
       <c r="CF47" s="10"/>
       <c r="CG47" s="10"/>
       <c r="CH47" s="10">
-        <f t="shared" si="25"/>
-        <v>398050</v>
+        <f t="shared" ref="CH47:CS47" si="31">CH43+CH44+CH45</f>
+        <v>412102.84</v>
       </c>
       <c r="CI47" s="10">
-        <f t="shared" si="25"/>
-        <v>398050</v>
+        <f t="shared" si="31"/>
+        <v>413050</v>
       </c>
       <c r="CJ47" s="10">
-        <f t="shared" si="25"/>
-        <v>407193.74999999994</v>
+        <f t="shared" si="31"/>
+        <v>422193.74999999994</v>
       </c>
       <c r="CK47" s="10">
-        <f t="shared" si="25"/>
-        <v>413131.24999999994</v>
+        <f t="shared" si="31"/>
+        <v>428131.24999999994</v>
       </c>
       <c r="CL47" s="10">
-        <f t="shared" si="25"/>
-        <v>427808.74999999994</v>
+        <f t="shared" si="31"/>
+        <v>442808.74999999994</v>
       </c>
       <c r="CM47" s="10">
-        <f t="shared" si="25"/>
-        <v>432558.74999999994</v>
+        <f t="shared" si="31"/>
+        <v>447558.74999999994</v>
       </c>
       <c r="CN47" s="10">
-        <f t="shared" si="25"/>
-        <v>441702.49999999994</v>
+        <f t="shared" si="31"/>
+        <v>456702.49999999994</v>
       </c>
       <c r="CO47" s="10">
-        <f t="shared" si="25"/>
-        <v>437308.74999999994</v>
+        <f t="shared" si="31"/>
+        <v>452308.74999999994</v>
       </c>
       <c r="CP47" s="10">
-        <f t="shared" si="25"/>
-        <v>442486.24999999994</v>
+        <f t="shared" si="31"/>
+        <v>457486.24999999994</v>
       </c>
       <c r="CQ47" s="10">
-        <f t="shared" si="25"/>
-        <v>458517.49999999994</v>
+        <f t="shared" si="31"/>
+        <v>473517.49999999994</v>
       </c>
       <c r="CR47" s="10">
-        <f t="shared" si="25"/>
-        <v>460061.24999999994</v>
+        <f t="shared" si="31"/>
+        <v>475061.24999999994</v>
       </c>
       <c r="CS47" s="10">
-        <f t="shared" si="25"/>
-        <v>465998.74999999994</v>
+        <f t="shared" si="31"/>
+        <v>480998.74999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
@@ -12693,7 +12767,9 @@
       <c r="BX49" s="13">
         <v>0</v>
       </c>
-      <c r="BY49" s="13"/>
+      <c r="BY49" s="13">
+        <v>0</v>
+      </c>
       <c r="BZ49" s="13"/>
       <c r="CA49" s="13"/>
       <c r="CB49" s="13"/>
@@ -12739,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -12968,7 +13044,9 @@
       <c r="BX50" s="13">
         <v>35000</v>
       </c>
-      <c r="BY50" s="13"/>
+      <c r="BY50" s="13">
+        <v>35000</v>
+      </c>
       <c r="BZ50" s="13"/>
       <c r="CA50" s="13"/>
       <c r="CB50" s="13"/>
@@ -13014,7 +13092,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
@@ -13243,7 +13321,9 @@
       <c r="BX51" s="13">
         <v>-4181.75</v>
       </c>
-      <c r="BY51" s="13"/>
+      <c r="BY51" s="13">
+        <v>-47571.26</v>
+      </c>
       <c r="BZ51" s="13"/>
       <c r="CA51" s="13"/>
       <c r="CB51" s="13"/>
@@ -13289,10 +13369,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -13301,302 +13381,305 @@
         <v>1112849.1000000001</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" ref="C53:BN53" si="26">C32+C33+C38+C39+C43+C44+C45+C49+C50+C51</f>
+        <f t="shared" ref="C53:BN53" si="32">C32+C33+C38+C39+C43+C44+C45+C49+C50+C51</f>
         <v>1181680.94</v>
       </c>
       <c r="D53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1172994.2500000002</v>
       </c>
       <c r="E53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1139664.05</v>
       </c>
       <c r="F53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1179828.1500000001</v>
       </c>
       <c r="G53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1118430.1399999999</v>
       </c>
       <c r="H53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1167449.22</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1082551.77</v>
       </c>
       <c r="J53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1126775.7000000002</v>
       </c>
       <c r="K53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1133012.2200000002</v>
       </c>
       <c r="L53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1228121.8499999999</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1142343.6599999999</v>
       </c>
       <c r="N53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1102527.48</v>
       </c>
       <c r="O53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1098330.26</v>
       </c>
       <c r="P53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1095210.1399999999</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1080841.3799999999</v>
       </c>
       <c r="R53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1018626.29</v>
       </c>
       <c r="S53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1120351.5200000003</v>
       </c>
       <c r="T53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1097301.49</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1138900.8600000001</v>
       </c>
       <c r="V53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1044948.02</v>
       </c>
       <c r="W53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1121746.93</v>
       </c>
       <c r="X53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1102662.78</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>202723.62000000002</v>
       </c>
       <c r="Z53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>988034.29000000027</v>
       </c>
       <c r="AA53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>917720.95000000007</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1035855.7100000001</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>846134.90000000014</v>
       </c>
       <c r="AD53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1062931.99</v>
       </c>
       <c r="AE53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>968250.19000000006</v>
       </c>
       <c r="AF53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>889698.43</v>
       </c>
       <c r="AG53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>965479.33</v>
       </c>
       <c r="AH53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>864098.19000000006</v>
       </c>
       <c r="AI53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1031432.1600000003</v>
       </c>
       <c r="AJ53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1070653.6499999999</v>
       </c>
       <c r="AK53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>934104.45000000007</v>
       </c>
       <c r="AL53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>945945.9</v>
       </c>
       <c r="AM53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>906260.86</v>
       </c>
       <c r="AN53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1150949.81</v>
       </c>
       <c r="AO53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1046914.2000000001</v>
       </c>
       <c r="AP53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1030954.15</v>
       </c>
       <c r="AQ53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>982913.05999999994</v>
       </c>
       <c r="AR53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1074261</v>
       </c>
       <c r="AS53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1197753.97</v>
       </c>
       <c r="AT53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1125776.02</v>
       </c>
       <c r="AU53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1298532.22</v>
       </c>
       <c r="AV53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1509081.0300000003</v>
       </c>
       <c r="AW53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1073250.1399999999</v>
       </c>
       <c r="AX53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1194138.95</v>
       </c>
       <c r="AY53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1180379.47</v>
       </c>
       <c r="AZ53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1251376.2399999998</v>
       </c>
       <c r="BA53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1228599.1299999999</v>
       </c>
       <c r="BB53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1272089.44</v>
       </c>
       <c r="BC53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1286354.6700000002</v>
       </c>
       <c r="BD53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1313134.8900000001</v>
       </c>
       <c r="BE53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1271173.74</v>
       </c>
       <c r="BF53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1307006.76</v>
       </c>
       <c r="BG53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1405899.7799999998</v>
       </c>
       <c r="BH53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1322517.7300000002</v>
       </c>
       <c r="BI53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>239489.96999999997</v>
       </c>
       <c r="BJ53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1328048.5399999998</v>
       </c>
       <c r="BK53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1276485.18</v>
       </c>
       <c r="BL53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1281200.2000000002</v>
       </c>
       <c r="BM53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1184958.7799999998</v>
       </c>
       <c r="BN53" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1208512.3900000001</v>
       </c>
       <c r="BO53" s="16">
-        <f t="shared" ref="BO53:CS53" si="27">BO32+BO33+BO38+BO39+BO43+BO44+BO45+BO49+BO50+BO51</f>
+        <f t="shared" ref="BO53:CS53" si="33">BO32+BO33+BO38+BO39+BO43+BO44+BO45+BO49+BO50+BO51</f>
         <v>1232702.7300000002</v>
       </c>
       <c r="BP53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1112615.7800000003</v>
       </c>
       <c r="BQ53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1107389.2300000002</v>
       </c>
       <c r="BR53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1112060.2500000002</v>
       </c>
       <c r="BS53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1093424.6000000001</v>
       </c>
       <c r="BT53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1098018.08</v>
       </c>
       <c r="BU53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>719611.10000000009</v>
       </c>
       <c r="BV53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1367735.2099999997</v>
       </c>
       <c r="BW53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1049207.2599999998</v>
       </c>
       <c r="BX53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1190691.9999999998</v>
       </c>
-      <c r="BY53" s="16"/>
+      <c r="BY53" s="16">
+        <f t="shared" si="33"/>
+        <v>1120813.83</v>
+      </c>
       <c r="BZ53" s="16"/>
       <c r="CA53" s="16"/>
       <c r="CB53" s="16"/>
@@ -13610,54 +13693,54 @@
         <v>1211282.8400000001</v>
       </c>
       <c r="CI53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>937230</v>
       </c>
       <c r="CJ53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>950123.75</v>
       </c>
       <c r="CK53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>958561.25</v>
       </c>
       <c r="CL53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>979488.75</v>
       </c>
       <c r="CM53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>986738.75</v>
       </c>
       <c r="CN53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>999632.5</v>
       </c>
       <c r="CO53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>993988.75</v>
       </c>
       <c r="CP53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1000416.25</v>
       </c>
       <c r="CQ53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1023947.5</v>
       </c>
       <c r="CR53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1026741.25</v>
       </c>
       <c r="CS53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1035178.75</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
@@ -13666,302 +13749,305 @@
         <v>-274062.17999999924</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:BN55" si="28">C20-C53</f>
+        <f t="shared" ref="C55:BN55" si="34">C20-C53</f>
         <v>-458383.0699999989</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-485991.17000000016</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-7135.559999999823</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-142562.36999999895</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-186961.90999999945</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-206038.81999999774</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-156676.28000000073</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-138692.40000000037</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-377308.97999999812</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-619774.36999999848</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-765621.51999999932</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-723747.48</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-424925.95999999926</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-31183.699999999488</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>130674.2099999981</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>122271.56000000145</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-27148.420000000624</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-78115.90000000014</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-178372.8600000001</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-297780.28000000073</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-437830.63000000012</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-559924.46999999951</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1010552.13</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-87170.850000000792</v>
       </c>
       <c r="AA55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-103782.24999999895</v>
       </c>
       <c r="AB55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-388388.60999999859</v>
       </c>
       <c r="AC55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-410776.67000000342</v>
       </c>
       <c r="AD55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-693084.36999999895</v>
       </c>
       <c r="AE55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-997489.3399999995</v>
       </c>
       <c r="AF55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1233616.1200000006</v>
       </c>
       <c r="AG55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1384916.7000000011</v>
       </c>
       <c r="AH55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1121530.94</v>
       </c>
       <c r="AI55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1349778.5699999994</v>
       </c>
       <c r="AJ55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-857222.05999999819</v>
       </c>
       <c r="AK55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-597319.60999999929</v>
       </c>
       <c r="AL55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-568565.40000000095</v>
       </c>
       <c r="AM55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-265654.90000000095</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-205397.03000000166</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-420058.15000000026</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-591735.91999999958</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-631682.06999999972</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-530437.58999999985</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-596086.97999999882</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-330902.36999999965</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-291501.87000000034</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-292181.54000000097</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>69660.210000000661</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>302686.42999999993</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>129623.55999999843</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>380458.55000000028</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>109534.00999999978</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>150952.88000000035</v>
       </c>
       <c r="BC55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>9614.0300000009593</v>
       </c>
       <c r="BD55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>72474.53999999864</v>
       </c>
       <c r="BE55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2779.2300000016112</v>
       </c>
       <c r="BF55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-58559.280000000494</v>
       </c>
       <c r="BG55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-96941.000000000466</v>
       </c>
       <c r="BH55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-193576.12000000267</v>
       </c>
       <c r="BI55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>716230.57999999891</v>
       </c>
       <c r="BJ55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>187964.49000000046</v>
       </c>
       <c r="BK55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-122138.18999999971</v>
       </c>
       <c r="BL55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>119472.34999999963</v>
       </c>
       <c r="BM55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-303535.50000000047</v>
       </c>
       <c r="BN55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>303824.37999999942</v>
       </c>
       <c r="BO55" s="10">
-        <f t="shared" ref="BO55:CS55" si="29">BO20-BO53</f>
+        <f t="shared" ref="BO55:CS55" si="35">BO20-BO53</f>
         <v>178631.46999999997</v>
       </c>
       <c r="BP55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-6385.160000000149</v>
       </c>
       <c r="BQ55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>345539.27000000072</v>
       </c>
       <c r="BR55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-5762.0400000002701</v>
       </c>
       <c r="BS55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-13915.069999998901</v>
       </c>
       <c r="BT55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4816.0500000007451</v>
       </c>
       <c r="BU55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>6603.5199999990873</v>
       </c>
       <c r="BV55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>328967.14999999874</v>
       </c>
       <c r="BW55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>226695.06000000052</v>
       </c>
       <c r="BX55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-34928.050000000512</v>
       </c>
-      <c r="BY55" s="10"/>
+      <c r="BY55" s="10">
+        <f>BY20-BY53</f>
+        <v>265135.95000000112</v>
+      </c>
       <c r="BZ55" s="10"/>
       <c r="CA55" s="10"/>
       <c r="CB55" s="10"/>
@@ -13975,51 +14061,51 @@
         <v>112699.29207024979</v>
       </c>
       <c r="CI55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>361752.13207024988</v>
       </c>
       <c r="CJ55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>380853.38207024988</v>
       </c>
       <c r="CK55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>323778.38207024988</v>
       </c>
       <c r="CL55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>509659.38207024988</v>
       </c>
       <c r="CM55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>500259.38207024988</v>
       </c>
       <c r="CN55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>499360.63207024988</v>
       </c>
       <c r="CO55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>460859.38207024988</v>
       </c>
       <c r="CP55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>505540.38207024988</v>
       </c>
       <c r="CQ55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>558265.38207024988</v>
       </c>
       <c r="CR55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>542689.13207024988</v>
       </c>
       <c r="CS55" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>555614.13207024988</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>43</v>
       </c>
@@ -14028,302 +14114,305 @@
         <v>-3.5142477248376131E-2</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:BN56" si="30">C55/C4</f>
+        <f t="shared" ref="C56:BN56" si="36">C55/C4</f>
         <v>-5.9015288015381022E-2</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-5.8937275855330137E-2</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-8.1117009536720291E-4</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.6703766471278997E-2</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.2184491884574824E-2</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.413734676948057E-2</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.8865811989931643E-2</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.6741590981012851E-2</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-4.9366188228188404E-2</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-8.7192820727385503E-2</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.10728219656869714</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.10482995787273799</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-6.2872315662430359E-2</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-4.1904795707203004E-3</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.5706678131078282E-2</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.5274626103360781E-2</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.6049901565825353E-3</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.0698615955523709E-2</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.4955836663244399E-2</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-4.1992242735083479E-2</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-6.2370387059768634E-2</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-7.9313903889033491E-2</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.18103856919025318</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.2440352679774657E-2</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.3995252872149703E-2</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-5.1139767004233332E-2</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-5.4666549887245439E-2</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-8.2454785991182319E-2</v>
       </c>
       <c r="AE56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.12615089816725467</v>
       </c>
       <c r="AF56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.14996026901027945</v>
       </c>
       <c r="AG56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.18144866127949583</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.13950774640950364</v>
       </c>
       <c r="AI56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.17340077695212869</v>
       </c>
       <c r="AJ56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.11682367417114142</v>
       </c>
       <c r="AK56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-9.8343271245247749E-2</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-7.9119814946555594E-2</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.5832866314186883E-2</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.577268524795082E-2</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-4.9381068543575012E-2</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-7.3034789016419605E-2</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-7.7699531310184172E-2</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-6.5919254285557324E-2</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-6.9279345436027817E-2</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.7762325343563392E-2</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.2461129608460204E-2</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-3.4011301128223342E-2</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0294461103329565E-2</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.6019858444249438E-2</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.624481326487779E-2</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.4515608456733753E-2</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.360046753002842E-2</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.8663920168145862E-2</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.2012166965257491E-3</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.9826162201190468E-3</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.5084864292006876E-4</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-7.7339446788890478E-3</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.2000247726924179E-2</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.4145581109308489E-2</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.10356094909143887</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.2497454832743489E-2</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-1.6319533635919713E-2</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.4889900944922499E-2</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-4.6640341122254216E-2</v>
       </c>
       <c r="BN56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.6544147165130693E-2</v>
       </c>
       <c r="BO56" s="9">
-        <f t="shared" ref="BO56:CS56" si="31">BO55/BO4</f>
+        <f t="shared" ref="BO56:CS56" si="37">BO55/BO4</f>
         <v>2.2188030961387915E-2</v>
       </c>
       <c r="BP56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-8.7035487685656733E-4</v>
       </c>
       <c r="BQ56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>4.1777589278083289E-2</v>
       </c>
       <c r="BR56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-7.9993430088851579E-4</v>
       </c>
       <c r="BS56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-1.9837697288291375E-3</v>
       </c>
       <c r="BT56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>6.6186995597311018E-4</v>
       </c>
       <c r="BU56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.1886210657529731E-3</v>
       </c>
       <c r="BV56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>3.2784384747869176E-2</v>
       </c>
       <c r="BW56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>2.7307344480097837E-2</v>
       </c>
       <c r="BX56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-4.2017990755081466E-3</v>
       </c>
-      <c r="BY56" s="9"/>
+      <c r="BY56" s="9">
+        <f t="shared" ref="BY56" si="38">BY55/BY4</f>
+        <v>2.905429501145159E-2</v>
+      </c>
       <c r="BZ56" s="9"/>
       <c r="CA56" s="9"/>
       <c r="CB56" s="9"/>
@@ -14333,359 +14422,362 @@
       <c r="CF56" s="9"/>
       <c r="CG56" s="9"/>
       <c r="CH56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.3448602872344844E-2</v>
       </c>
       <c r="CI56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>4.3168512180220747E-2</v>
       </c>
       <c r="CJ56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>4.4427341157217831E-2</v>
       </c>
       <c r="CK56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>3.7226603284880699E-2</v>
       </c>
       <c r="CL56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.6587951154194183E-2</v>
       </c>
       <c r="CM56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.4934319669494303E-2</v>
       </c>
       <c r="CN56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.3700465864098275E-2</v>
       </c>
       <c r="CO56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.0058043998289239E-2</v>
       </c>
       <c r="CP56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.4268732979469686E-2</v>
       </c>
       <c r="CQ56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.7833355648010967E-2</v>
       </c>
       <c r="CR56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.6031091019591125E-2</v>
       </c>
       <c r="CS56" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>5.6634639627975117E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
         <f>B55+B11+B43+B45</f>
         <v>487128.60000000079</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ref="C57:BN57" si="32">C55+C11+C43+C45</f>
+        <f t="shared" ref="C57:BN57" si="39">C55+C11+C43+C45</f>
         <v>309424.76000000112</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>330939.90999999986</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>752371.51000000013</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>624020.78000000108</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>572435.98000000056</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>583544.45000000228</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>639613.62999999931</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>647616.60999999964</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>414009.61000000185</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>154329.17000000153</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-2066.6699999993198</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-4759.5399999999827</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>285664.04000000079</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>692298.40000000049</v>
       </c>
       <c r="Q57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>836946.86999999802</v>
       </c>
       <c r="R57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>822766.8600000015</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1055722.0099999993</v>
       </c>
       <c r="T57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>712788.65999999992</v>
       </c>
       <c r="U57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>613097.24999999988</v>
       </c>
       <c r="V57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>608296.58999999915</v>
       </c>
       <c r="W57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>343689.24999999977</v>
       </c>
       <c r="X57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>211685.77000000043</v>
       </c>
       <c r="Y57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1432875.55</v>
       </c>
       <c r="Z57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>620222.26999999932</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>590049.65000000107</v>
       </c>
       <c r="AB57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>329664.12000000145</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>314700.36999999662</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>33329.17000000109</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-287034.21999999945</v>
       </c>
       <c r="AF57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-494172.45000000054</v>
       </c>
       <c r="AG57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-665333.05000000098</v>
       </c>
       <c r="AH57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-403148.47000000003</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-631983.06999999925</v>
       </c>
       <c r="AJ57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-137147.19999999815</v>
       </c>
       <c r="AK57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>79997.790000000794</v>
       </c>
       <c r="AL57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>165767.82999999897</v>
       </c>
       <c r="AM57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>467335.11999999906</v>
       </c>
       <c r="AN57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>566643.03999999841</v>
       </c>
       <c r="AO57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>370577.38999999978</v>
       </c>
       <c r="AP57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>186556.24000000043</v>
       </c>
       <c r="AQ57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>182734.63000000021</v>
       </c>
       <c r="AR57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>296521.03000000032</v>
       </c>
       <c r="AS57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>281532.25000000116</v>
       </c>
       <c r="AT57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>560011.04000000039</v>
       </c>
       <c r="AU57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>667452.80999999959</v>
       </c>
       <c r="AV57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>742909.06999999913</v>
       </c>
       <c r="AW57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>988107.43000000063</v>
       </c>
       <c r="AX57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1222456.2799999998</v>
       </c>
       <c r="AY57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1056143.5499999984</v>
       </c>
       <c r="AZ57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1334838.8300000003</v>
       </c>
       <c r="BA57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1080547.7299999997</v>
       </c>
       <c r="BB57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1128269.5600000005</v>
       </c>
       <c r="BC57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>969793.98000000103</v>
       </c>
       <c r="BD57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1045371.2299999986</v>
       </c>
       <c r="BE57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>946114.49000000162</v>
       </c>
       <c r="BF57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>877713.12999999942</v>
       </c>
       <c r="BG57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>883792.13999999943</v>
       </c>
       <c r="BH57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>710798.45999999729</v>
       </c>
       <c r="BI57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>931715.3199999989</v>
       </c>
       <c r="BJ57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1112600.5800000005</v>
       </c>
       <c r="BK57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>764474.99000000022</v>
       </c>
       <c r="BL57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>995346.28999999957</v>
       </c>
       <c r="BM57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>554998.06999999948</v>
       </c>
       <c r="BN57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1149752.6999999995</v>
       </c>
       <c r="BO57" s="3">
-        <f t="shared" ref="BO57:CS57" si="33">BO55+BO11+BO43+BO45</f>
+        <f t="shared" ref="BO57:CS57" si="40">BO55+BO11+BO43+BO45</f>
         <v>1083239.3899999999</v>
       </c>
       <c r="BP57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>891490.46999999986</v>
       </c>
       <c r="BQ57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1309385.7200000009</v>
       </c>
       <c r="BR57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>938796.7799999998</v>
       </c>
       <c r="BS57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>939161.93000000098</v>
       </c>
       <c r="BT57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>917542.51000000082</v>
       </c>
       <c r="BU57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>744407.49999999895</v>
       </c>
       <c r="BV57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1330787.3999999987</v>
       </c>
       <c r="BW57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1051072.2200000004</v>
       </c>
       <c r="BX57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>912561.51999999955</v>
       </c>
-      <c r="BY57" s="3"/>
+      <c r="BY57" s="3">
+        <f t="shared" si="40"/>
+        <v>1171063.850000001</v>
+      </c>
       <c r="BZ57" s="3"/>
       <c r="CA57" s="3"/>
       <c r="CB57" s="3"/>
@@ -14695,359 +14787,362 @@
       <c r="CF57" s="3"/>
       <c r="CG57" s="3"/>
       <c r="CH57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1017092.1320702498</v>
       </c>
       <c r="CI57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1267092.1320702499</v>
       </c>
       <c r="CJ57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1294470.8820702499</v>
       </c>
       <c r="CK57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1242770.8820702499</v>
       </c>
       <c r="CL57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1441938.8820702499</v>
       </c>
       <c r="CM57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1436838.8820702499</v>
       </c>
       <c r="CN57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1494217.6320702499</v>
       </c>
       <c r="CO57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1451738.8820702499</v>
       </c>
       <c r="CP57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1501106.8820702499</v>
       </c>
       <c r="CQ57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1568344.3820702499</v>
       </c>
       <c r="CR57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1554165.6320702499</v>
       </c>
       <c r="CS57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1572465.6320702499</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9">
         <f>B57/B4</f>
         <v>6.2463583054522126E-2</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:BN58" si="34">C57/C4</f>
+        <f t="shared" ref="C58:BN58" si="41">C57/C4</f>
         <v>3.9837403529083784E-2</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.0133850101038079E-2</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.5529554725667187E-2</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.3115348617909914E-2</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>6.79240030910504E-2</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>6.8361946283016117E-2</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.7017596344370901E-2</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.8173947506352773E-2</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.4168009294501988E-2</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.1711765287771367E-2</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-2.8959073300676889E-4</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-6.8938737816898459E-4</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.2267033288070265E-2</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>9.3031369017865129E-2</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.10059869579394111</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.10278315052769474</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.14018743831638966</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>9.7622278317120448E-2</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.577737010935578E-2</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.578048909821516E-2</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.895964348310114E-2</v>
       </c>
       <c r="X58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.9985517183158821E-2</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.25669703887487433</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.8513347967242972E-2</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.9569425974803251E-2</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.3407416830415685E-2</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.188062451584524E-2</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>3.9651010736453749E-3</v>
       </c>
       <c r="AE58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-3.6300763532708349E-2</v>
       </c>
       <c r="AF58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-6.0072361521563873E-2</v>
       </c>
       <c r="AG58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-8.7170435035915109E-2</v>
       </c>
       <c r="AH58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-5.0147822509595139E-2</v>
       </c>
       <c r="AI58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-8.1188394744325695E-2</v>
       </c>
       <c r="AJ58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-1.8690652695386986E-2</v>
       </c>
       <c r="AK58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1.317091257223324E-2</v>
       </c>
       <c r="AL58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.3067742134312046E-2</v>
       </c>
       <c r="AM58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>6.3036506681730289E-2</v>
       </c>
       <c r="AN58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.1100895265437128E-2</v>
       </c>
       <c r="AO58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>4.3564224372956713E-2</v>
       </c>
       <c r="AP58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.3025635537042573E-2</v>
       </c>
       <c r="AQ58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.2477122241478128E-2</v>
       </c>
       <c r="AR58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>3.6849660631301406E-2</v>
       </c>
       <c r="AS58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>3.2720677776139753E-2</v>
       </c>
       <c r="AT58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>6.3908031509315968E-2</v>
       </c>
       <c r="AU58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.4326357401895651E-2</v>
       </c>
       <c r="AV58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.6478098823964844E-2</v>
       </c>
       <c r="AW58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.14602358367920296</v>
       </c>
       <c r="AX58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.14547299712076209</v>
       </c>
       <c r="AY58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.13235907693520607</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.15618301312751298</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.1341679567516148</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.13950004131083169</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.12117007342041199</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.12956506611347876</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.11943703287001116</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.11591988138096113</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.10940391185471987</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.8660945721513909E-2</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.13471823951196515</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.13316707477797621</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.10214557226633553</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.12405052435978822</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.5279314304233467E-2</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.13829282519166639</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" ref="BO58:CS58" si="35">BO57/BO4</f>
+        <f t="shared" ref="BO58:CS58" si="42">BO57/BO4</f>
         <v>0.13455047491864094</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.12151818877453895</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.15831190132672127</v>
       </c>
       <c r="BR58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.13033157456138006</v>
       </c>
       <c r="BS58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.13388944555815374</v>
       </c>
       <c r="BT58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.12609790610501626</v>
       </c>
       <c r="BU58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.13399193702822548</v>
       </c>
       <c r="BV58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.13262432476682429</v>
       </c>
       <c r="BW58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.12661057186248842</v>
       </c>
       <c r="BX58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.10977996627582276</v>
       </c>
-      <c r="BY58" s="9"/>
+      <c r="BY58" s="9">
+        <f t="shared" si="42"/>
+        <v>0.12832825791880045</v>
+      </c>
       <c r="BZ58" s="9"/>
       <c r="CA58" s="9"/>
       <c r="CB58" s="9"/>
@@ -15057,359 +15152,362 @@
       <c r="CF58" s="9"/>
       <c r="CG58" s="9"/>
       <c r="CH58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.12137137614203458</v>
       </c>
       <c r="CI58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.15120431170289378</v>
       </c>
       <c r="CJ58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.15100272756724992</v>
       </c>
       <c r="CK58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.14288828767694739</v>
       </c>
       <c r="CL58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16009980370512961</v>
       </c>
       <c r="CM58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.15778168144405094</v>
       </c>
       <c r="CN58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16068584063557909</v>
       </c>
       <c r="CO58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.15768629577692389</v>
       </c>
       <c r="CP58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16114077420108958</v>
       </c>
       <c r="CQ58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16247222439347869</v>
       </c>
       <c r="CR58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16046312860154352</v>
       </c>
       <c r="CS58" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.16028394394477855</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
         <f>B15+B53</f>
         <v>2938200.49</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60:BN60" si="36">C15+C53</f>
+        <f t="shared" ref="C60:BN60" si="43">C15+C53</f>
         <v>3032111.48</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3062464.09</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3115231.87</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3223548.31</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3112720.5999999996</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3252573.8200000003</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3203550.37</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3283546.3100000005</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3078912.06</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3368370.1399999997</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3418384.51</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2982381.9899999998</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2815736.55</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2937071.66</v>
       </c>
       <c r="Q60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2912266.45</v>
       </c>
       <c r="R60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2865222.67</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2951179.92</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2991867.75</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3059395.34</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2937534</v>
       </c>
       <c r="W60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3094283.7</v>
       </c>
       <c r="X60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3132308.9799999995</v>
       </c>
       <c r="Y60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1244426.32</v>
       </c>
       <c r="Z60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2725484.63</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2673680.98</v>
       </c>
       <c r="AB60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2836751.7399999998</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2563290.46</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2919869.77</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2857606.0100000002</v>
       </c>
       <c r="AF60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2769684.0900000003</v>
       </c>
       <c r="AG60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2977278.8400000003</v>
       </c>
       <c r="AH60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2812912.99</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2978153.1700000004</v>
       </c>
       <c r="AJ60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3028129.7699999996</v>
       </c>
       <c r="AK60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2857340.66</v>
       </c>
       <c r="AL60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2588622.4500000002</v>
       </c>
       <c r="AM60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2609599.2200000002</v>
       </c>
       <c r="AN60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2954191.2600000002</v>
       </c>
       <c r="AO60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2941774.3100000005</v>
       </c>
       <c r="AP60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2937363.3</v>
       </c>
       <c r="AQ60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2950624.61</v>
       </c>
       <c r="AR60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3082078.5700000003</v>
       </c>
       <c r="AS60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3158923.08</v>
       </c>
       <c r="AT60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2957943.36</v>
       </c>
       <c r="AU60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3124549.16</v>
       </c>
       <c r="AV60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3348122.26</v>
       </c>
       <c r="AW60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2561894.4900000002</v>
       </c>
       <c r="AX60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2875135.3499999996</v>
       </c>
       <c r="AY60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>2862381.33</v>
       </c>
       <c r="AZ60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3056946.57</v>
       </c>
       <c r="BA60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3035359.53</v>
       </c>
       <c r="BB60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3042388.89</v>
       </c>
       <c r="BC60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3101242.74</v>
       </c>
       <c r="BD60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3275617.8600000003</v>
       </c>
       <c r="BE60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3222101.05</v>
       </c>
       <c r="BF60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3256047.2699999996</v>
       </c>
       <c r="BG60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3403031.1399999997</v>
       </c>
       <c r="BH60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3364272.8100000005</v>
       </c>
       <c r="BI60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1721657.0999999999</v>
       </c>
       <c r="BJ60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3059602.9899999998</v>
       </c>
       <c r="BK60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3002021.05</v>
       </c>
       <c r="BL60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3047584.12</v>
       </c>
       <c r="BM60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3088139.99</v>
       </c>
       <c r="BN60" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>3003910.3100000005</v>
       </c>
       <c r="BO60" s="3">
-        <f t="shared" ref="BO60:CS60" si="37">BO15+BO53</f>
+        <f t="shared" ref="BO60:CS60" si="44">BO15+BO53</f>
         <v>3064445.0700000003</v>
       </c>
       <c r="BP60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3003341</v>
       </c>
       <c r="BQ60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2898530.7</v>
       </c>
       <c r="BR60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2981952.41</v>
       </c>
       <c r="BS60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2919979.3899999997</v>
       </c>
       <c r="BT60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2969963.36</v>
       </c>
       <c r="BU60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2676993.0300000003</v>
       </c>
       <c r="BV60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3156107.3099999996</v>
       </c>
       <c r="BW60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2864896.9799999995</v>
       </c>
       <c r="BX60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3135741.6399999997</v>
       </c>
-      <c r="BY60" s="3"/>
+      <c r="BY60" s="3">
+        <f t="shared" ref="BY60" si="45">BY15+BY53</f>
+        <v>3084153.9400000004</v>
+      </c>
       <c r="BZ60" s="3"/>
       <c r="CA60" s="3"/>
       <c r="CB60" s="3"/>
@@ -15419,359 +15517,362 @@
       <c r="CF60" s="3"/>
       <c r="CG60" s="3"/>
       <c r="CH60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3011282.84</v>
       </c>
       <c r="CI60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2762230</v>
       </c>
       <c r="CJ60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2818023.75</v>
       </c>
       <c r="CK60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2905061.25</v>
       </c>
       <c r="CL60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2847488.75</v>
       </c>
       <c r="CM60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2893338.75</v>
       </c>
       <c r="CN60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2969132.5</v>
       </c>
       <c r="CO60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2969188.75</v>
       </c>
       <c r="CP60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2979916.25</v>
       </c>
       <c r="CQ60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3029247.5</v>
       </c>
       <c r="CR60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3036341.25</v>
       </c>
       <c r="CS60" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3053378.75</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="18">
         <f>B60/B8</f>
         <v>3.7915619063224741</v>
       </c>
       <c r="C61" s="18">
-        <f t="shared" ref="C61:BN61" si="38">C60/C8</f>
+        <f t="shared" ref="C61:BN61" si="46">C60/C8</f>
         <v>3.6541288818585111</v>
       </c>
       <c r="D61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.5359541243569641</v>
       </c>
       <c r="E61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.5048935641926575</v>
       </c>
       <c r="F61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.9144524567578189</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.6329130618273897</v>
       </c>
       <c r="H61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8564679283249408</v>
       </c>
       <c r="I61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8526168315495002</v>
       </c>
       <c r="J61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8359321197605167</v>
       </c>
       <c r="K61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.9210657371374138</v>
       </c>
       <c r="L61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.7414814527237414</v>
       </c>
       <c r="M61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5017470423898871</v>
       </c>
       <c r="N61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.0686350435518746</v>
       </c>
       <c r="O61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.0910256873326469</v>
       </c>
       <c r="P61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8558265105773759</v>
       </c>
       <c r="Q61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.5439753841831374</v>
       </c>
       <c r="R61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.4780033927623086</v>
       </c>
       <c r="S61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.7177632135560104</v>
       </c>
       <c r="T61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.0026812058893757</v>
       </c>
       <c r="U61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2484862193111521</v>
       </c>
       <c r="V61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8168601893083567</v>
       </c>
       <c r="W61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.36467339466261</v>
       </c>
       <c r="X61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.0459997973582889</v>
       </c>
       <c r="Y61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1.7741845075794029</v>
       </c>
       <c r="Z61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8832894877485553</v>
       </c>
       <c r="AA61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.5629649697698187</v>
       </c>
       <c r="AB61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.570987024362255</v>
       </c>
       <c r="AC61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.4966805079327594</v>
       </c>
       <c r="AD61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2431302473840731</v>
       </c>
       <c r="AE61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.021025927936039</v>
       </c>
       <c r="AF61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>3.8459474989116953</v>
       </c>
       <c r="AG61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.21583095209101</v>
       </c>
       <c r="AH61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.0349859595932358</v>
       </c>
       <c r="AI61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2423411305015479</v>
       </c>
       <c r="AJ61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.7753976160306442</v>
       </c>
       <c r="AK61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>5.7837567265856125</v>
       </c>
       <c r="AL61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5940602292278951</v>
       </c>
       <c r="AM61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5872159333123426</v>
       </c>
       <c r="AN61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.9716770184634633</v>
       </c>
       <c r="AO61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.1452801354158701</v>
       </c>
       <c r="AP61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.7943988296352833</v>
       </c>
       <c r="AQ61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5450965205740328</v>
       </c>
       <c r="AR61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.8989393614362857</v>
       </c>
       <c r="AS61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.6596734619836768</v>
       </c>
       <c r="AT61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2109797354995129</v>
       </c>
       <c r="AU61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2968339459791212</v>
       </c>
       <c r="AV61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>5.0051975246421128</v>
       </c>
       <c r="AW61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.6836416443639628</v>
       </c>
       <c r="AX61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2360017414672519</v>
       </c>
       <c r="AY61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2585086484635166</v>
       </c>
       <c r="AZ61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.2549565089772425</v>
       </c>
       <c r="BA61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.4556957980146894</v>
       </c>
       <c r="BB61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5618899842472986</v>
       </c>
       <c r="BC61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.3681936780691011</v>
       </c>
       <c r="BD61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.915337553743953</v>
       </c>
       <c r="BE61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.9176433511800148</v>
       </c>
       <c r="BF61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.9298432921560629</v>
       </c>
       <c r="BG61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.8600877932621227</v>
       </c>
       <c r="BH61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.5927024544870969</v>
       </c>
       <c r="BI61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>2.6491634515953129</v>
       </c>
       <c r="BJ61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.1886977610682115</v>
       </c>
       <c r="BK61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.3918207695589304</v>
       </c>
       <c r="BL61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.6213974698975644</v>
       </c>
       <c r="BM61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>5.8600270926677789</v>
       </c>
       <c r="BN61" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>4.1894865823362766</v>
       </c>
       <c r="BO61" s="18">
-        <f t="shared" ref="BO61:CS61" si="39">BO60/BO8</f>
+        <f t="shared" ref="BO61:CS61" si="47">BO60/BO8</f>
         <v>4.1202098726919054</v>
       </c>
       <c r="BP61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.4776233332978013</v>
       </c>
       <c r="BQ61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.7323989347638924</v>
       </c>
       <c r="BR61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.496584087185421</v>
       </c>
       <c r="BS61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.8757218811836625</v>
       </c>
       <c r="BT61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.6999128147504772</v>
       </c>
       <c r="BU61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.2246916049951375</v>
       </c>
       <c r="BV61" s="18">
-        <f t="shared" si="39"/>
-        <v>4.4477397984811136</v>
+        <f t="shared" si="47"/>
+        <v>4.4477397984811127</v>
       </c>
       <c r="BW61" s="18">
-        <f t="shared" si="39"/>
-        <v>3.8956323781035223</v>
+        <f t="shared" si="47"/>
+        <v>3.895732074085918</v>
       </c>
       <c r="BX61" s="18">
-        <f t="shared" si="39"/>
-        <v>4.2408976393822062</v>
-      </c>
-      <c r="BY61" s="18"/>
+        <f t="shared" si="47"/>
+        <v>4.2398845239374108</v>
+      </c>
+      <c r="BY61" s="18">
+        <f t="shared" ref="BY61" si="48">BY60/BY8</f>
+        <v>3.7422331183234085</v>
+      </c>
       <c r="BZ61" s="18"/>
       <c r="CA61" s="18"/>
       <c r="CB61" s="18"/>
@@ -15781,51 +15882,51 @@
       <c r="CF61" s="18"/>
       <c r="CG61" s="18"/>
       <c r="CH61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4.0150437866666664</v>
       </c>
       <c r="CI61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.6829733333333334</v>
       </c>
       <c r="CJ61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.6836911764705884</v>
       </c>
       <c r="CK61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.7484661290322578</v>
       </c>
       <c r="CL61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.5593609375000002</v>
       </c>
       <c r="CM61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.5720231481481481</v>
       </c>
       <c r="CN61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.598948484848485</v>
       </c>
       <c r="CO61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.6209618902439025</v>
       </c>
       <c r="CP61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.6120196969696972</v>
       </c>
       <c r="CQ61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.5429795321637427</v>
       </c>
       <c r="CR61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.5306293604651162</v>
       </c>
       <c r="CS61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.5096307471264367</v>
       </c>
     </row>
@@ -15841,35 +15942,35 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="88" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="67" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="88" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
         <v>2019</v>
       </c>
@@ -16132,7 +16233,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
@@ -16395,7 +16496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -16661,7 +16762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -16927,7 +17028,7 @@
         <v>9810500</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -17280,7 +17381,7 @@
         <v>8219707.1179297501</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -17546,7 +17647,7 @@
         <v>6142644.1179297501</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -17899,7 +18000,7 @@
         <v>0.62612956708931755</v>
       </c>
     </row>
-    <row r="8" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -18165,7 +18266,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="9" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -18431,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -18697,7 +18798,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="11" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -18963,10 +19064,10 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="12" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -19232,7 +19333,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="14" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -19498,7 +19599,7 @@
         <v>313200</v>
       </c>
     </row>
-    <row r="15" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -19851,7 +19952,7 @@
         <v>2018200</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -20117,7 +20218,7 @@
         <v>58863</v>
       </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -20470,12 +20571,12 @@
         <v>2077063</v>
       </c>
     </row>
-    <row r="18" spans="1:88" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -20828,7 +20929,7 @@
         <v>0.2526930668209913</v>
       </c>
     </row>
-    <row r="20" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -21181,7 +21282,7 @@
         <v>1590792.8820702499</v>
       </c>
     </row>
-    <row r="21" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -21534,7 +21635,7 @@
         <v>-0.16215206993224096</v>
       </c>
     </row>
-    <row r="22" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -21887,7 +21988,7 @@
         <v>2170792.8820702499</v>
       </c>
     </row>
-    <row r="23" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -22240,10 +22341,10 @@
         <v>0.22127240019063757</v>
       </c>
     </row>
-    <row r="24" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -22509,7 +22610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -22775,7 +22876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -23041,7 +23142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -23307,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -23573,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -23839,10 +23940,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -24183,7 +24284,7 @@
         <v>301680.00000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -24449,10 +24550,10 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -24718,7 +24819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -24984,7 +25085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -25074,7 +25175,7 @@
       <c r="CI37" s="13"/>
       <c r="CJ37" s="13"/>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -25340,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -25693,10 +25794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -26037,10 +26138,10 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -26306,7 +26407,7 @@
         <v>421851.49999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -26572,7 +26673,7 @@
         <v>44147.250000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -26838,10 +26939,10 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>41</v>
       </c>
@@ -27194,10 +27295,10 @@
         <v>465998.74999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
@@ -27463,7 +27564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -27729,7 +27830,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
@@ -27995,10 +28096,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -28351,10 +28452,10 @@
         <v>1035178.75</v>
       </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
@@ -28707,7 +28808,7 @@
         <v>555614.13207024988</v>
       </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>43</v>
       </c>
@@ -29060,7 +29161,7 @@
         <v>5.6634639627975117E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -29134,7 +29235,7 @@
       <c r="BT58" s="1"/>
       <c r="BU58" s="1"/>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -29221,35 +29322,35 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="88" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="67" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="88" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B1" s="4">
         <v>2019</v>
       </c>
@@ -29512,7 +29613,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
@@ -29775,7 +29876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -30041,7 +30142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -30307,7 +30408,7 @@
         <v>9810500</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -30660,7 +30761,7 @@
         <v>8219707.1179297501</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -30926,7 +31027,7 @@
         <v>6142644.1179297501</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -31279,7 +31380,7 @@
         <v>0.62612956708931755</v>
       </c>
     </row>
-    <row r="8" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -31545,7 +31646,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="9" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -31811,7 +31912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -32077,7 +32178,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="11" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -32343,10 +32444,10 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="12" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -32612,7 +32713,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="14" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -32878,7 +32979,7 @@
         <v>313200</v>
       </c>
     </row>
-    <row r="15" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -33231,7 +33332,7 @@
         <v>2018200</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -33497,7 +33598,7 @@
         <v>58863</v>
       </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -33850,12 +33951,12 @@
         <v>2077063</v>
       </c>
     </row>
-    <row r="18" spans="1:88" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -34208,7 +34309,7 @@
         <v>0.2526930668209913</v>
       </c>
     </row>
-    <row r="20" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -34561,7 +34662,7 @@
         <v>1590792.8820702499</v>
       </c>
     </row>
-    <row r="21" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -34914,7 +35015,7 @@
         <v>-0.16215206993224096</v>
       </c>
     </row>
-    <row r="22" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -35267,7 +35368,7 @@
         <v>2170792.8820702499</v>
       </c>
     </row>
-    <row r="23" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -35620,10 +35721,10 @@
         <v>0.22127240019063757</v>
       </c>
     </row>
-    <row r="24" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -35889,7 +35990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -36155,7 +36256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -36421,7 +36522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -36687,7 +36788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -36953,7 +37054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -37219,10 +37320,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -37563,7 +37664,7 @@
         <v>301680.00000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:88" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -37829,10 +37930,10 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -38098,7 +38199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -38364,7 +38465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -38454,7 +38555,7 @@
       <c r="CI37" s="13"/>
       <c r="CJ37" s="13"/>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -38720,7 +38821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -39073,10 +39174,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -39417,10 +39518,10 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -39686,7 +39787,7 @@
         <v>421851.49999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -39952,7 +40053,7 @@
         <v>44147.250000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -40218,10 +40319,10 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>41</v>
       </c>
@@ -40574,10 +40675,10 @@
         <v>465998.74999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
@@ -40843,7 +40944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -41109,7 +41210,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
@@ -41375,10 +41476,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -41731,10 +41832,10 @@
         <v>1035178.75</v>
       </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
@@ -42087,7 +42188,7 @@
         <v>555614.13207024988</v>
       </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>43</v>
       </c>
@@ -42440,7 +42541,7 @@
         <v>5.6634639627975117E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -42514,7 +42615,7 @@
       <c r="BT58" s="1"/>
       <c r="BU58" s="1"/>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>

--- a/server/data/financials.xlsx
+++ b/server/data/financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dashboard\IPDash\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27444D9-DCB4-4198-8AD5-208EDBB101D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F2BF1A-BFB9-4CCC-AD05-933A15C6F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13654" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="1" r:id="rId1"/>
@@ -422,138 +422,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D477CE-ABCD-0206-0FB0-477FE9906C2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="73142475" y="4200525"/>
-          <a:ext cx="836295" cy="4046220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C25D0B-F353-4303-AD5D-D34265CDF43D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="73232010" y="4238625"/>
-          <a:ext cx="838200" cy="4088130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -843,48 +711,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BX17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CV13" sqref="CV13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="67" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="10.5703125" customWidth="1"/>
-    <col min="79" max="79" width="12.42578125" customWidth="1"/>
-    <col min="80" max="85" width="10.5703125" customWidth="1"/>
-    <col min="86" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.85546875" customWidth="1"/>
-    <col min="98" max="98" width="11.140625" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="67" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" customWidth="1"/>
+    <col min="79" max="79" width="12.44140625" customWidth="1"/>
+    <col min="80" max="85" width="10.5546875" customWidth="1"/>
+    <col min="86" max="96" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.88671875" customWidth="1"/>
+    <col min="98" max="98" width="11.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>2019</v>
       </c>
@@ -1176,7 +1044,7 @@
       <c r="CT1" s="7"/>
       <c r="CU1" s="7"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1336,7 @@
       <c r="CT2" s="3"/>
       <c r="CU2" s="3"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1631,7 @@
       <c r="CT3" s="7"/>
       <c r="CU3" s="7"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +1910,7 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2275,7 @@
         <v>8081600.9688068749</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2552,7 @@
         <v>6142957.4688068749</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -3049,7 +2917,7 @@
         <v>0.62616150744680443</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -3326,7 +3194,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -3880,7 +3748,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -4157,10 +4025,10 @@
         <v>568516.25</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4437,7 +4305,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4714,7 +4582,7 @@
         <v>313200</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -5079,7 +4947,7 @@
         <v>2006716.25</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5356,7 +5224,7 @@
         <v>-68072.75</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -5721,12 +5589,12 @@
         <v>1938643.5</v>
       </c>
     </row>
-    <row r="18" spans="1:97" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -6091,7 +5959,7 @@
         <v>0.23988359577300575</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -6456,7 +6324,7 @@
         <v>1728899.0311931251</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -6821,7 +6689,7 @@
         <v>0.17622945121993019</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -7186,7 +7054,7 @@
         <v>2297415.2811931251</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -7551,10 +7419,10 @@
         <v>0.23417922442211153</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -7831,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -8108,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -8385,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -8662,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -8937,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -9214,10 +9082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -9570,7 +9438,7 @@
         <v>336481.62777600001</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -9847,10 +9715,10 @@
         <v>216674.31058000002</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -10127,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -10404,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -10511,7 +10379,7 @@
       <c r="CR37" s="12"/>
       <c r="CS37" s="12"/>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -10788,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -11153,10 +11021,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -11509,10 +11377,10 @@
         <v>310754.74916499999</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -11789,7 +11657,7 @@
         <v>375960.13931</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -12066,7 +11934,7 @@
         <v>43598.254419999997</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -12343,10 +12211,10 @@
         <v>15162.12775</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -12711,10 +12579,10 @@
         <v>434720.52148</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -12991,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -13268,7 +13136,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -13545,10 +13413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -13937,10 +13805,10 @@
         <v>1333631.209001</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>19</v>
       </c>
@@ -14305,7 +14173,7 @@
         <v>395267.82219212502</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -14670,7 +14538,7 @@
         <v>4.0290283083647627E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -15035,7 +14903,7 @@
         <v>1354906.339252125</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -15400,7 +15268,7 @@
         <v>0.13810777628582896</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -15765,7 +15633,7 @@
         <v>3340347.459001</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -16130,25 +15998,25 @@
         <v>3.8394798379321839</v>
       </c>
     </row>
-    <row r="65" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="65" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE65" s="18"/>
     </row>
-    <row r="66" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="66" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE66" s="18"/>
     </row>
-    <row r="67" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="67" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE67" s="18"/>
     </row>
-    <row r="68" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="68" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE68" s="19"/>
     </row>
-    <row r="69" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="69" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE69" s="19"/>
     </row>
-    <row r="70" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="70" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE70" s="19"/>
     </row>
-    <row r="71" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="71" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE71" s="18"/>
     </row>
   </sheetData>
@@ -16162,46 +16030,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59A68A8-668C-4345-8638-6323AF5068DD}">
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BZ16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="58" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="74" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="10.5703125" customWidth="1"/>
-    <col min="79" max="79" width="12.42578125" customWidth="1"/>
-    <col min="80" max="85" width="10.5703125" customWidth="1"/>
-    <col min="86" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.85546875" customWidth="1"/>
-    <col min="98" max="98" width="11.140625" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="58" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="74" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" customWidth="1"/>
+    <col min="79" max="79" width="12.44140625" customWidth="1"/>
+    <col min="80" max="85" width="10.5546875" customWidth="1"/>
+    <col min="86" max="96" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.88671875" customWidth="1"/>
+    <col min="98" max="98" width="11.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>2019</v>
       </c>
@@ -16493,7 +16361,7 @@
       <c r="CT1" s="7"/>
       <c r="CU1" s="7"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -16785,7 +16653,7 @@
       <c r="CT2" s="3"/>
       <c r="CU2" s="3"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
@@ -17080,7 +16948,7 @@
       <c r="CT3" s="7"/>
       <c r="CU3" s="7"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -17359,7 +17227,7 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -17724,7 +17592,7 @@
         <v>1128120.2182439023</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -18001,7 +17869,7 @@
         <v>723000</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -18366,7 +18234,7 @@
         <v>0.60807401177460052</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -18643,7 +18511,7 @@
         <v>110900</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -18920,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -19197,7 +19065,7 @@
         <v>135495.51707317069</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -19474,7 +19342,7 @@
         <v>102643.73917073171</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="CH12" s="12"/>
       <c r="CI12" s="12"/>
@@ -19489,7 +19357,7 @@
       <c r="CR12" s="12"/>
       <c r="CS12" s="12"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -19766,7 +19634,7 @@
         <v>62617</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -20043,7 +19911,7 @@
         <v>104363.962</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -20408,7 +20276,7 @@
         <v>405120.21824390237</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -20685,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -21050,12 +20918,12 @@
         <v>405120.21824390237</v>
       </c>
     </row>
-    <row r="18" spans="1:97" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -21420,7 +21288,7 @@
         <v>0.35911085688592315</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -21785,7 +21653,7 @@
         <v>60879.781756097684</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -22150,7 +22018,7 @@
         <v>5.1202507784775177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -22515,7 +22383,7 @@
         <v>163523.5209268294</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -22880,10 +22748,10 @@
         <v>0.1375302951445159</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -23160,7 +23028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -23437,7 +23305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -23714,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -23991,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -24268,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -24545,10 +24413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -24901,7 +24769,7 @@
         <v>69772.78</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -25178,10 +25046,10 @@
         <v>15457.000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -25458,7 +25326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -25735,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12">
         <v>0</v>
@@ -25986,7 +25854,7 @@
       <c r="CR37" s="12"/>
       <c r="CS37" s="12"/>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -26263,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -26628,10 +26496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -26984,10 +26852,10 @@
         <v>59574.980000000018</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -27264,7 +27132,7 @@
         <v>70563.685679999995</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -27541,7 +27409,7 @@
         <v>4164.9243200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -27818,10 +27686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -28186,10 +28054,10 @@
         <v>74728.61</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -28466,7 +28334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -28743,7 +28611,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -29020,10 +28888,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -29412,10 +29280,10 @@
         <v>239533.37000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>19</v>
       </c>
@@ -29780,7 +29648,7 @@
         <v>-178653.58824390234</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -30145,7 +30013,7 @@
         <v>-0.15025533073498934</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -30510,7 +30378,7 @@
         <v>-5446.163393170631</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -30875,7 +30743,7 @@
         <v>-4.5804570169643661E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -31240,7 +31108,7 @@
         <v>644653.58824390243</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -31605,7 +31473,7 @@
         <v>5.8129268552200397</v>
       </c>
     </row>
-    <row r="65" spans="83:83" x14ac:dyDescent="0.25">
+    <row r="65" spans="83:83" x14ac:dyDescent="0.3">
       <c r="CE65" s="18"/>
     </row>
   </sheetData>
@@ -31619,44 +31487,44 @@
   <dimension ref="A1:CU61"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CC38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="72" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="10.5703125" customWidth="1"/>
-    <col min="79" max="79" width="12.42578125" customWidth="1"/>
-    <col min="80" max="85" width="10.5703125" customWidth="1"/>
-    <col min="86" max="96" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.85546875" customWidth="1"/>
-    <col min="98" max="98" width="11.140625" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="60" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="72" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" customWidth="1"/>
+    <col min="79" max="79" width="12.44140625" customWidth="1"/>
+    <col min="80" max="85" width="10.5546875" customWidth="1"/>
+    <col min="86" max="96" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.88671875" customWidth="1"/>
+    <col min="98" max="98" width="11.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>2019</v>
       </c>
@@ -31948,7 +31816,7 @@
       <c r="CT1" s="7"/>
       <c r="CU1" s="7"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -32240,7 +32108,7 @@
       <c r="CT2" s="3"/>
       <c r="CU2" s="3"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
@@ -32535,7 +32403,7 @@
       <c r="CT3" s="7"/>
       <c r="CU3" s="7"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -32830,7 +32698,7 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -33195,7 +33063,7 @@
         <v>12561109</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -33488,7 +33356,7 @@
         <v>8344342</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -33853,7 +33721,7 @@
         <v>0.56312391390172056</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -34146,7 +34014,7 @@
         <v>1454112</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -34439,7 +34307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -34732,7 +34600,7 @@
         <v>1317787</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -35025,7 +34893,7 @@
         <v>884464</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="CH12" s="12"/>
       <c r="CI12" s="12"/>
@@ -35040,7 +34908,7 @@
       <c r="CR12" s="12"/>
       <c r="CS12" s="12"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -35333,7 +35201,7 @@
         <v>1377308</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -35626,7 +35494,7 @@
         <v>451477</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -35991,7 +35859,7 @@
         <v>4031036</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -36284,7 +36152,7 @@
         <v>185731</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -36649,12 +36517,12 @@
         <v>4216767</v>
       </c>
     </row>
-    <row r="18" spans="1:97" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -37019,7 +36887,7 @@
         <v>0.3357002156417877</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -37384,7 +37252,7 @@
         <v>2256841</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -37749,7 +37617,7 @@
         <v>0.15230453605255787</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -38114,7 +37982,7 @@
         <v>3141305</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -38479,10 +38347,10 @@
         <v>0.21199322443387919</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -38775,7 +38643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -39068,7 +38936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -39361,7 +39229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -39654,7 +39522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -39947,7 +39815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -40240,10 +40108,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -40596,7 +40464,7 @@
         <v>363408</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -40889,10 +40757,10 @@
         <v>655027</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -41185,7 +41053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -41478,7 +41346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12">
         <v>0</v>
@@ -41769,7 +41637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -42062,7 +41930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -42427,10 +42295,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -42783,10 +42651,10 @@
         <v>357262</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -43079,7 +42947,7 @@
         <v>432244</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -43372,7 +43240,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -43665,10 +43533,10 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -44033,10 +43901,10 @@
         <v>481765</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -44329,7 +44197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -44622,7 +44490,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -44915,10 +44783,10 @@
         <v>-8750</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -45283,10 +45151,10 @@
         <v>1888712</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>19</v>
       </c>
@@ -45651,7 +45519,7 @@
         <v>368129</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -46016,7 +45884,7 @@
         <v>2.4843450004892714E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -46381,7 +46249,7 @@
         <v>1690493</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -46746,7 +46614,7 @@
         <v>0.11408413444504807</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -47111,7 +46979,7 @@
         <v>5919748</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -47479,7 +47347,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -47487,45 +47354,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C76322-ABC6-4521-8775-D779831909D1}">
   <dimension ref="A1:CU61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="48" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="72" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="10.5703125" customWidth="1"/>
-    <col min="79" max="79" width="12.42578125" customWidth="1"/>
-    <col min="80" max="85" width="10.5703125" customWidth="1"/>
-    <col min="86" max="96" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.85546875" customWidth="1"/>
-    <col min="98" max="98" width="11.140625" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="48" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="60" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="72" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="10.5546875" customWidth="1"/>
+    <col min="79" max="79" width="12.44140625" customWidth="1"/>
+    <col min="80" max="85" width="10.5546875" customWidth="1"/>
+    <col min="86" max="96" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.88671875" customWidth="1"/>
+    <col min="98" max="98" width="11.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>2019</v>
       </c>
@@ -47817,7 +47684,7 @@
       <c r="CT1" s="7"/>
       <c r="CU1" s="7"/>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
@@ -48109,7 +47976,7 @@
       <c r="CT2" s="3"/>
       <c r="CU2" s="3"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
@@ -48404,7 +48271,7 @@
       <c r="CT3" s="7"/>
       <c r="CU3" s="7"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -48699,7 +48566,7 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -49064,7 +48931,7 @@
         <v>12561109</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -49357,7 +49224,7 @@
         <v>8344342</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -49722,7 +49589,7 @@
         <v>0.56312391390172056</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -50015,7 +49882,7 @@
         <v>1454112</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -50308,7 +50175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -50601,7 +50468,7 @@
         <v>1317787</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -50894,7 +50761,7 @@
         <v>884464</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="CH12" s="12"/>
       <c r="CI12" s="12"/>
@@ -50909,7 +50776,7 @@
       <c r="CR12" s="12"/>
       <c r="CS12" s="12"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -51202,7 +51069,7 @@
         <v>1377308</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -51495,7 +51362,7 @@
         <v>451477</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -51860,7 +51727,7 @@
         <v>4031036</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -52153,7 +52020,7 @@
         <v>185731</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -52518,12 +52385,12 @@
         <v>4216767</v>
       </c>
     </row>
-    <row r="18" spans="1:97" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -52888,7 +52755,7 @@
         <v>0.3357002156417877</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -53253,7 +53120,7 @@
         <v>2256841</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -53618,7 +53485,7 @@
         <v>0.15230453605255787</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -53983,7 +53850,7 @@
         <v>3141305</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -54348,10 +54215,10 @@
         <v>0.21199322443387919</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -54644,7 +54511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -54937,7 +54804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -55230,7 +55097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -55523,7 +55390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -55816,7 +55683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -56109,10 +55976,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -56465,7 +56332,7 @@
         <v>363408</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -56758,10 +56625,10 @@
         <v>655027</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -57054,7 +56921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -57347,7 +57214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12">
         <v>0</v>
@@ -57638,7 +57505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -57931,7 +57798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -58296,10 +58163,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -58652,10 +58519,10 @@
         <v>357262</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -58948,7 +58815,7 @@
         <v>432244</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -59241,7 +59108,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -59534,10 +59401,10 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -59902,10 +59769,10 @@
         <v>481765</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -60198,7 +60065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -60491,7 +60358,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -60784,10 +60651,10 @@
         <v>-8750</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -61152,10 +61019,10 @@
         <v>1888712</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>19</v>
       </c>
@@ -61520,7 +61387,7 @@
         <v>368129</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -61885,7 +61752,7 @@
         <v>2.4843450004892714E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -62250,7 +62117,7 @@
         <v>1690493</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -62615,7 +62482,7 @@
         <v>0.11408413444504807</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -62980,7 +62847,7 @@
         <v>5919748</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
@@ -63348,6 +63215,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>